--- a/DRI.xlsx
+++ b/DRI.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E616F1F2-2728-2F44-B224-CE644003A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C416F1-0947-1441-A9C4-69E94C1AAE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="920" windowWidth="23320" windowHeight="28020" xr2:uid="{C19AB2D7-219A-0F41-AFC1-A17790D06E24}"/>
+    <workbookView xWindow="65240" yWindow="500" windowWidth="35320" windowHeight="28020" activeTab="2" xr2:uid="{C19AB2D7-219A-0F41-AFC1-A17790D06E24}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="investors" sheetId="4" r:id="rId2"/>
+    <sheet name="model" sheetId="2" r:id="rId3"/>
+    <sheet name="Notes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +39,49 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jameel</author>
+  </authors>
+  <commentList>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{2B8D7096-5CFB-3447-A3F5-F79546C47539}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jameel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$37.5/sh</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={67290A03-ED6C-C846-8A93-FBD8AECE45FB}</author>
@@ -73,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="143">
   <si>
     <t>P</t>
   </si>
@@ -373,17 +418,148 @@
   </si>
   <si>
     <t>SSS</t>
+  </si>
+  <si>
+    <t>Transactions from households with incomes below $75,000 were lower than last year, most pronounced in Fine Dining.</t>
+  </si>
+  <si>
+    <t>We have levers to pull but will not shift to heavy promotional strategies. We will continue pricing below inflation.</t>
+  </si>
+  <si>
+    <t>The challenges are broader market issues rather than internal missteps. The entire industry saw negative traffic in the quarter</t>
+  </si>
+  <si>
+    <t>Marketing spend remains prudent, focusing on long-term brand equity. Construction costs and timelines are impacting new openings</t>
+  </si>
+  <si>
+    <t>Capacity remains constrained with net closures outpacing openings. New restaurant growth will come primarily from Olive Garden and LongHorn</t>
+  </si>
+  <si>
+    <t>The focus remains on core equities and everyday value without deep discounting. We are seeing some trade-down within brands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Texas and California remain soft, with weather impacts. Marketing spend is assessed based on effectiveness and long-term brand building.</t>
+  </si>
+  <si>
+    <t>Q4 commodity inflation is expected around 3%, with most categories inflationary except seafood. Coverage remains consistent with historical levels.</t>
+  </si>
+  <si>
+    <t>Olive Garden exceeded industry benchmarks despite less media spend. Traffic and share gains were maintained.</t>
+  </si>
+  <si>
+    <t>Holders</t>
+  </si>
+  <si>
+    <t>Capital World Investors</t>
+  </si>
+  <si>
+    <t>Vanguard</t>
+  </si>
+  <si>
+    <t>Capital international Investors</t>
+  </si>
+  <si>
+    <t>BlackRock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geode Capital </t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Newport Trust</t>
+  </si>
+  <si>
+    <t>Invesco</t>
+  </si>
+  <si>
+    <t>JPMorgan</t>
+  </si>
+  <si>
+    <t>Wellington Mgt</t>
+  </si>
+  <si>
+    <t>Earnest Partners</t>
+  </si>
+  <si>
+    <t>Congress Asset Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Trust Corp </t>
+  </si>
+  <si>
+    <t>Ameriprice</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>Press Release</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Acquire Chuy's</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Chuy's</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Orlando, Fl</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>Long Beach, CA</t>
+  </si>
+  <si>
+    <t>Irving, TX</t>
+  </si>
+  <si>
+    <t>New Orleans LA</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
+  </si>
+  <si>
+    <t>Austin, TX</t>
+  </si>
+  <si>
+    <t>EV/24E</t>
+  </si>
+  <si>
+    <t>EV/25E</t>
+  </si>
+  <si>
+    <t>FCF Return</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0&quot;M&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0\x"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -397,15 +573,41 @@
       <name val="ArialMT"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="ArialMT"/>
       <family val="2"/>
     </font>
@@ -435,23 +637,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -474,16 +690,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>90</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -498,8 +714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14329833" y="38100"/>
-          <a:ext cx="0" cy="13953067"/>
+          <a:off x="15057120" y="0"/>
+          <a:ext cx="0" cy="14698134"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -524,14 +740,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>10584</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41064</xdr:colOff>
       <xdr:row>96</xdr:row>
       <xdr:rowOff>52917</xdr:rowOff>
     </xdr:to>
@@ -548,8 +764,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7969250" y="0"/>
-          <a:ext cx="21167" cy="14954250"/>
+          <a:off x="8576310" y="0"/>
+          <a:ext cx="19474" cy="15658677"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -911,154 +1127,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFC3BE-F2A6-434A-B991-194289D8B1A3}">
-  <dimension ref="B3:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFFC3BE-F2A6-434A-B991-194289D8B1A3}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="212" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="212" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="5.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1"/>
-    <col min="8" max="8" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8">
-      <c r="F3" s="1" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>147.6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="F4" s="1" t="s">
+      <c r="I11" s="1">
+        <v>143.36000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1990</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>119.358947</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I12" s="1">
+        <v>118.86295</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1986</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <f>+I11*I12</f>
+        <v>17040.192512000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="H14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="1">
+        <v>194.8</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>+J12</f>
+        <v>10K</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <f>86.8+1370.4</f>
+        <v>1457.2</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>+J14</f>
+        <v>10K</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <f>+I13-I14+I15</f>
+        <v>18302.592512000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <f>+G3*G4</f>
-        <v>17617.380577199998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>243.9</v>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>+H4</f>
-        <v>Q324</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1">
-        <f>158.7+1372.8</f>
-        <v>1531.5</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f>+H6</f>
-        <v>Q324</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="7" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="1">
+        <f>+model!N84</f>
+        <v>1755.4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="3">
+        <f>+I18/I16</f>
+        <v>9.59099099676224E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
-        <f>+G5-G6+G7</f>
-        <v>18904.980577199996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="24">
+        <v>45490</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{4CC35D22-E789-3348-8D51-83EBBEC0D946}"/>
-    <hyperlink ref="B10" r:id="rId2" xr:uid="{3145E475-44EE-8847-9D77-08C6D0FA5EBE}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{9F62F6A0-940D-AC43-B814-A7D810533BEA}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{9D0836E1-CD30-6A42-8745-47DE789EA926}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{8CF61334-AF10-1946-B827-C797CD00560F}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{FAFE20FE-4AC9-6441-AACD-EBD350D9BA71}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{DAB64CBA-8CFC-6248-84EB-6C9C1200AD0E}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{4DA7392B-E077-1E4A-BA43-038E11298D90}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{9446C067-496A-684D-9833-B01D9F779850}"/>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{4CC35D22-E789-3348-8D51-83EBBEC0D946}"/>
+    <hyperlink ref="B18" r:id="rId2" xr:uid="{3145E475-44EE-8847-9D77-08C6D0FA5EBE}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{9F62F6A0-940D-AC43-B814-A7D810533BEA}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{9D0836E1-CD30-6A42-8745-47DE789EA926}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{8CF61334-AF10-1946-B827-C797CD00560F}"/>
+    <hyperlink ref="B30" r:id="rId6" xr:uid="{FAFE20FE-4AC9-6441-AACD-EBD350D9BA71}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{DAB64CBA-8CFC-6248-84EB-6C9C1200AD0E}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{4DA7392B-E077-1E4A-BA43-038E11298D90}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{9446C067-496A-684D-9833-B01D9F779850}"/>
+    <hyperlink ref="B33" r:id="rId10" display="https://investor.darden.com/news/news-details/2024/Darden-Restaurants-to-Acquire-Chuys-Holdings-Inc.-in-Approximately-605-Million-Transaction/default.aspx" xr:uid="{457F4D29-7F9B-9A49-A935-82BBB0C34CAB}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{CBACFE32-A328-A245-9059-9052B3BFE8FC}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B12F036-689B-F14E-939F-9E99AB4C97EA}">
+  <dimension ref="B3:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="21">
+        <v>16434064</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.13826061000000001</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21">
+        <v>118862950</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="21">
+        <v>13775425</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.11589334599999999</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="21">
+        <v>9089235</v>
+      </c>
+      <c r="D6" s="20">
+        <v>7.6468193000000004E-2</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="21">
+        <v>8238495</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6.9310873999999995E-2</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2711737</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2.2813980000000001E-2</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2069705</v>
+      </c>
+      <c r="D9" s="20">
+        <v>1.7412533000000001E-2</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2060302</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1.7333425E-2</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2016016</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1.6960843999999999E-2</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1818708</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1.5300882E-2</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1710046</v>
+      </c>
+      <c r="D13" s="20">
+        <v>1.4386703000000001E-2</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1646240</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1.38499E-2</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1572642</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1.3230716999999999E-2</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABECBF8-56BA-CD4D-A18B-F1C877FD3E92}">
   <dimension ref="A1:HQ87"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1072,7 +1694,7 @@
     <col min="9" max="11" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="1"/>
     <col min="17" max="19" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2791,6 +3413,9 @@
       <c r="M4" s="1">
         <v>917</v>
       </c>
+      <c r="N4" s="1">
+        <v>920</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -2811,7 +3436,10 @@
         <f>+J4</f>
         <v>905</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="2">
+        <f>+N4</f>
+        <v>920</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -2843,6 +3471,9 @@
       <c r="M5" s="1">
         <v>572</v>
       </c>
+      <c r="N5" s="1">
+        <v>575</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -2863,7 +3494,10 @@
         <f t="shared" ref="Y5:Y13" si="9">+J5</f>
         <v>562</v>
       </c>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z5:Z13" si="10">+N5</f>
+        <v>575</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -2898,6 +3532,9 @@
       <c r="M6" s="1">
         <v>181</v>
       </c>
+      <c r="N6" s="1">
+        <v>181</v>
+      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -2918,7 +3555,10 @@
         <f t="shared" si="9"/>
         <v>180</v>
       </c>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="2">
+        <f t="shared" si="10"/>
+        <v>181</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -2953,6 +3593,9 @@
       <c r="M7" s="1">
         <v>88</v>
       </c>
+      <c r="N7" s="1">
+        <v>88</v>
+      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -2973,7 +3616,10 @@
         <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="2">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -3008,6 +3654,9 @@
       <c r="M8" s="1">
         <v>79</v>
       </c>
+      <c r="N8" s="1">
+        <v>80</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -3017,7 +3666,10 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="2">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -3052,6 +3704,9 @@
       <c r="M9" s="1">
         <v>64</v>
       </c>
+      <c r="N9" s="1">
+        <v>66</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -3072,7 +3727,10 @@
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="2">
+        <f t="shared" si="10"/>
+        <v>66</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -3107,6 +3765,9 @@
       <c r="M10" s="1">
         <v>44</v>
       </c>
+      <c r="N10" s="1">
+        <v>44</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -3127,7 +3788,10 @@
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="2">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -3162,6 +3826,9 @@
       <c r="M11" s="1">
         <v>43</v>
       </c>
+      <c r="N11" s="1">
+        <v>43</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -3182,7 +3849,10 @@
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="2">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -3217,6 +3887,9 @@
       <c r="M12" s="1">
         <v>30</v>
       </c>
+      <c r="N12" s="1">
+        <v>30</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -3237,7 +3910,10 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="2">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -3272,6 +3948,9 @@
       <c r="M13" s="1">
         <v>4</v>
       </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -3292,7 +3971,10 @@
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -3302,97 +3984,97 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:225" s="7" customFormat="1">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:225" s="6" customFormat="1">
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" ref="H14:M14" si="10">+SUM(H4:H13)</f>
+      <c r="H14" s="6">
+        <f t="shared" ref="H14:N14" si="11">+SUM(H4:H13)</f>
         <v>1887</v>
       </c>
-      <c r="I14" s="7">
-        <f t="shared" si="10"/>
+      <c r="I14" s="6">
+        <f t="shared" si="11"/>
         <v>1890</v>
       </c>
-      <c r="J14" s="7">
-        <f t="shared" si="10"/>
+      <c r="J14" s="6">
+        <f t="shared" si="11"/>
         <v>1914</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="10"/>
+      <c r="K14" s="6">
+        <f t="shared" si="11"/>
         <v>1998</v>
       </c>
-      <c r="L14" s="7">
-        <f t="shared" si="10"/>
+      <c r="L14" s="6">
+        <f t="shared" si="11"/>
         <v>2010</v>
       </c>
-      <c r="M14" s="7">
-        <f t="shared" si="10"/>
+      <c r="M14" s="6">
+        <f t="shared" si="11"/>
         <v>2022</v>
       </c>
-      <c r="N14" s="7">
-        <f>+M14+AVERAGE(50,55)</f>
-        <v>2074.5</v>
-      </c>
-      <c r="U14" s="7">
+      <c r="N14" s="6">
+        <f t="shared" si="11"/>
+        <v>2031</v>
+      </c>
+      <c r="U14" s="6">
         <f>+SUM(U4:U13)</f>
         <v>1785</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <f>+SUM(V4:V13)</f>
         <v>1804</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="6">
         <f>+SUM(W4:W13)</f>
         <v>1834</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <f>+SUM(X4:X13)</f>
         <v>1867</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="6">
         <f>+SUM(Y4:Y13)</f>
         <v>1914</v>
       </c>
-      <c r="Z14" s="7">
-        <f>+N14</f>
-        <v>2074.5</v>
-      </c>
-      <c r="AA14" s="7">
+      <c r="Z14" s="6">
+        <f>+SUM(Z4:Z13)</f>
+        <v>2031</v>
+      </c>
+      <c r="AA14" s="6">
         <f>+Z14+100</f>
-        <v>2174.5</v>
-      </c>
-      <c r="AB14" s="7">
-        <f t="shared" ref="AB14:AI14" si="11">+AA14+100</f>
-        <v>2274.5</v>
-      </c>
-      <c r="AC14" s="7">
-        <f t="shared" si="11"/>
-        <v>2374.5</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="11"/>
-        <v>2474.5</v>
-      </c>
-      <c r="AE14" s="7">
-        <f t="shared" si="11"/>
-        <v>2574.5</v>
-      </c>
-      <c r="AF14" s="7">
-        <f t="shared" si="11"/>
-        <v>2674.5</v>
-      </c>
-      <c r="AG14" s="7">
-        <f t="shared" si="11"/>
-        <v>2774.5</v>
-      </c>
-      <c r="AH14" s="7">
-        <f t="shared" si="11"/>
-        <v>2874.5</v>
-      </c>
-      <c r="AI14" s="7">
-        <f t="shared" si="11"/>
-        <v>2974.5</v>
+        <v>2131</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" ref="AB14:AI14" si="12">+AA14+100</f>
+        <v>2231</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="12"/>
+        <v>2331</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="12"/>
+        <v>2431</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" si="12"/>
+        <v>2531</v>
+      </c>
+      <c r="AF14" s="6">
+        <f t="shared" si="12"/>
+        <v>2631</v>
+      </c>
+      <c r="AG14" s="6">
+        <f t="shared" si="12"/>
+        <v>2731</v>
+      </c>
+      <c r="AH14" s="6">
+        <f t="shared" si="12"/>
+        <v>2831</v>
+      </c>
+      <c r="AI14" s="6">
+        <f t="shared" si="12"/>
+        <v>2931</v>
       </c>
     </row>
     <row r="15" spans="1:225">
@@ -3415,190 +4097,202 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:225" s="8" customFormat="1">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:225" s="7" customFormat="1">
+      <c r="B16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f>+H26/H14</f>
         <v>1.3177000529941707</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>+I26/I14</f>
         <v>1.4741798941798943</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f>+J26/J14</f>
         <v>1.4467084639498433</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="7">
         <f>+K26/K14</f>
         <v>1.3666666666666667</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f>+L26/L14</f>
         <v>1.3568656716417911</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f>+M22/M4</f>
         <v>1.4287895310796075</v>
       </c>
-      <c r="N16" s="8">
-        <f>+J16*0.99</f>
-        <v>1.4322413793103448</v>
-      </c>
-      <c r="U16" s="8">
-        <f>+U26/U14</f>
+      <c r="N16" s="7">
+        <f>+N22/N4</f>
+        <v>1.388586956521739</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" ref="U16:Z16" si="13">+U26/U14</f>
         <v>4.7677310924369749</v>
       </c>
-      <c r="V16" s="8">
-        <f>+V26/V14</f>
+      <c r="V16" s="7">
+        <f t="shared" si="13"/>
         <v>4.3270509977827052</v>
       </c>
-      <c r="W16" s="8">
-        <f>+W26/W14</f>
+      <c r="W16" s="7">
+        <f t="shared" si="13"/>
         <v>3.9237186477644497</v>
       </c>
-      <c r="X16" s="8">
-        <f>+X26/X14</f>
+      <c r="X16" s="7">
+        <f t="shared" si="13"/>
         <v>5.158007498660953</v>
       </c>
-      <c r="Y16" s="8">
-        <f>+Y26/Y14</f>
+      <c r="Y16" s="7">
+        <f t="shared" si="13"/>
         <v>5.4795193312434689</v>
       </c>
-      <c r="Z16" s="8">
-        <f>+Z26/Z14</f>
-        <v>5.4971726880594414</v>
-      </c>
-      <c r="AA16" s="8">
+      <c r="Z16" s="7">
+        <f t="shared" si="13"/>
+        <v>5.6080748399803051</v>
+      </c>
+      <c r="AA16" s="7">
         <f>+Z16*0.98</f>
-        <v>5.3872292342982524</v>
-      </c>
-      <c r="AB16" s="8">
-        <f t="shared" ref="AB16:AI16" si="12">+AA16*1.01</f>
-        <v>5.4411015266412353</v>
-      </c>
-      <c r="AC16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.4955125419076474</v>
-      </c>
-      <c r="AD16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.5504676673267239</v>
-      </c>
-      <c r="AE16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.6059723439999916</v>
-      </c>
-      <c r="AF16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.6620320674399913</v>
-      </c>
-      <c r="AG16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.7186523881143909</v>
-      </c>
-      <c r="AH16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.7758389119955345</v>
-      </c>
-      <c r="AI16" s="8">
-        <f t="shared" si="12"/>
-        <v>5.83359730111549</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35" s="8" customFormat="1">
-      <c r="B17" s="8" t="s">
+        <v>5.4959133431806988</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" ref="AB16:AI16" si="14">+AA16*1.01</f>
+        <v>5.5508724766125059</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.6063812013786309</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.6624450133924169</v>
+      </c>
+      <c r="AE16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.719069463526341</v>
+      </c>
+      <c r="AF16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.7762601581616044</v>
+      </c>
+      <c r="AG16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.8340227597432204</v>
+      </c>
+      <c r="AH16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.8923629873406522</v>
+      </c>
+      <c r="AI16" s="7">
+        <f t="shared" si="14"/>
+        <v>5.951286617214059</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" s="7" customFormat="1">
+      <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" ref="H17:M17" si="13">+H23/H5</f>
+      <c r="H17" s="7">
+        <f t="shared" ref="H17:L17" si="15">+H23/H5</f>
         <v>1.0858951175406872</v>
       </c>
-      <c r="I17" s="8">
-        <f t="shared" si="13"/>
+      <c r="I17" s="7">
+        <f t="shared" si="15"/>
         <v>1.2554151624548737</v>
       </c>
-      <c r="J17" s="8">
-        <f t="shared" si="13"/>
+      <c r="J17" s="7">
+        <f t="shared" si="15"/>
         <v>1.266370106761566</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="13"/>
+      <c r="K17" s="7">
+        <f t="shared" si="15"/>
         <v>1.1918149466192169</v>
       </c>
-      <c r="L17" s="8">
-        <f t="shared" si="13"/>
+      <c r="L17" s="7">
+        <f t="shared" si="15"/>
         <v>1.1360424028268552</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f>+M23/M5</f>
         <v>1.2774475524475526</v>
       </c>
-    </row>
-    <row r="18" spans="2:35" s="8" customFormat="1">
-      <c r="B18" s="8" t="s">
+      <c r="N17" s="7">
+        <f>+N23/N5</f>
+        <v>1.3264347826086953</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" s="7" customFormat="1">
+      <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18:M18" si="14">H24/SUMIF($A$4:$A$13,"FD",$M4:$M13)</f>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:L18" si="16">H24/SUMIF($A$4:$A$13,"FD",$M4:$M13)</f>
         <v>1.1676300578034682</v>
       </c>
-      <c r="I18" s="8">
-        <f t="shared" si="14"/>
+      <c r="I18" s="7">
+        <f t="shared" si="16"/>
         <v>1.3618497109826588</v>
       </c>
-      <c r="J18" s="8">
-        <f t="shared" si="14"/>
+      <c r="J18" s="7">
+        <f t="shared" si="16"/>
         <v>1.2127167630057805</v>
       </c>
-      <c r="K18" s="8">
-        <f t="shared" si="14"/>
+      <c r="K18" s="7">
+        <f t="shared" si="16"/>
         <v>1.5809248554913296</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="14"/>
+      <c r="L18" s="7">
+        <f t="shared" si="16"/>
         <v>1.8381502890173411</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f>M24/SUMIF($A$4:$A$13,"FD",$M4:$M13)</f>
         <v>2.1554913294797688</v>
       </c>
-    </row>
-    <row r="19" spans="2:35" s="8" customFormat="1">
-      <c r="B19" s="8" t="s">
+      <c r="N18" s="7">
+        <f>N24/SUMIF($A$4:$A$13,"FD",$M4:$M13)</f>
+        <v>1.8907514450867053</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" s="7" customFormat="1">
+      <c r="B19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" ref="H19:M19" si="15">H25/SUMIF($A$4:$A$13,"Other",$M5:$M14)</f>
+      <c r="H19" s="7">
+        <f t="shared" ref="H19:L19" si="17">H25/SUMIF($A$4:$A$13,"Other",$M5:$M14)</f>
         <v>0.22427055702917773</v>
       </c>
-      <c r="I19" s="8">
-        <f t="shared" si="15"/>
+      <c r="I19" s="7">
+        <f t="shared" si="17"/>
         <v>0.24487179487179486</v>
       </c>
-      <c r="J19" s="8">
-        <f t="shared" si="15"/>
+      <c r="J19" s="7">
+        <f t="shared" si="17"/>
         <v>0.25565870910698496</v>
       </c>
-      <c r="K19" s="8">
-        <f t="shared" si="15"/>
+      <c r="K19" s="7">
+        <f t="shared" si="17"/>
         <v>0.24730327144120245</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="15"/>
+      <c r="L19" s="7">
+        <f t="shared" si="17"/>
         <v>0.22763041556145003</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f>M25/SUMIF($A$4:$A$13,"Other",$M5:$M14)</f>
         <v>0.24801061007957559</v>
+      </c>
+      <c r="N19" s="7">
+        <f>N25/SUMIF($A$4:$A$13,"Other",$M5:$M14)</f>
+        <v>0.26083112290008853</v>
       </c>
     </row>
     <row r="20" spans="2:35">
@@ -3621,17 +4315,17 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="2:35" s="9" customFormat="1">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:35" s="8" customFormat="1">
+      <c r="B21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>0.05</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>-0.01</v>
       </c>
     </row>
@@ -3672,27 +4366,17 @@
       <c r="M22" s="1">
         <v>1310.2</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2">
+      <c r="N22" s="1">
+        <f>+Z22-SUM(K22:M22)</f>
+        <v>1277.5</v>
+      </c>
+      <c r="Y22" s="1">
         <f>SUM(G22:J22)</f>
         <v>4877.8</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
+      <c r="Z22" s="1">
+        <v>5067</v>
+      </c>
     </row>
     <row r="23" spans="2:35">
       <c r="B23" s="1" t="s">
@@ -3731,27 +4415,17 @@
       <c r="M23" s="1">
         <v>730.7</v>
       </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <f t="shared" ref="Y23:Y25" si="16">SUM(G23:J23)</f>
+      <c r="N23" s="1">
+        <f t="shared" ref="N23:N36" si="18">+Z23-SUM(K23:M23)</f>
+        <v>762.69999999999982</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" ref="Y23:Y25" si="19">SUM(G23:J23)</f>
         <v>2612.3000000000002</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="Z23" s="1">
+        <v>2806.2</v>
+      </c>
     </row>
     <row r="24" spans="2:35">
       <c r="B24" s="1" t="s">
@@ -3790,27 +4464,17 @@
       <c r="M24" s="1">
         <v>372.9</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <f t="shared" si="16"/>
+      <c r="N24" s="1">
+        <f t="shared" si="18"/>
+        <v>327.10000000000002</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="19"/>
         <v>830.8</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+      <c r="Z24" s="1">
+        <v>1291.5</v>
+      </c>
     </row>
     <row r="25" spans="2:35">
       <c r="B25" s="1" t="s">
@@ -3849,137 +4513,127 @@
       <c r="M25" s="1">
         <v>561</v>
       </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <f t="shared" si="16"/>
+      <c r="N25" s="1">
+        <f t="shared" si="18"/>
+        <v>590.00000000000023</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="19"/>
         <v>2166.8999999999996</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-    </row>
-    <row r="26" spans="2:35" s="7" customFormat="1">
-      <c r="B26" s="7" t="s">
+      <c r="Z25" s="1">
+        <v>2225.3000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" s="6" customFormat="1">
+      <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="7">
-        <f>SUM(C22:C25)</f>
+      <c r="C26" s="6">
+        <f t="shared" ref="C26:M26" si="20">SUM(C22:C25)</f>
         <v>2306</v>
       </c>
-      <c r="D26" s="7">
-        <f>SUM(D22:D25)</f>
+      <c r="D26" s="6">
+        <f t="shared" si="20"/>
         <v>2272.2000000000003</v>
       </c>
-      <c r="E26" s="7">
-        <f>SUM(E22:E25)</f>
+      <c r="E26" s="6">
+        <f t="shared" si="20"/>
         <v>2448.9</v>
       </c>
-      <c r="F26" s="7">
-        <f>SUM(F22:F25)</f>
+      <c r="F26" s="6">
+        <f t="shared" si="20"/>
         <v>2602.9</v>
       </c>
-      <c r="G26" s="7">
-        <f>SUM(G22:G25)</f>
+      <c r="G26" s="6">
+        <f t="shared" si="20"/>
         <v>2446.1000000000004</v>
       </c>
-      <c r="H26" s="7">
-        <f>SUM(H22:H25)</f>
+      <c r="H26" s="6">
+        <f t="shared" si="20"/>
         <v>2486.5</v>
       </c>
-      <c r="I26" s="7">
-        <f>SUM(I22:I25)</f>
+      <c r="I26" s="6">
+        <f t="shared" si="20"/>
         <v>2786.2000000000003</v>
       </c>
-      <c r="J26" s="7">
-        <f>SUM(J22:J25)</f>
+      <c r="J26" s="6">
+        <f t="shared" si="20"/>
         <v>2769</v>
       </c>
-      <c r="K26" s="7">
-        <f>SUM(K22:K25)</f>
+      <c r="K26" s="6">
+        <f t="shared" si="20"/>
         <v>2730.6</v>
       </c>
-      <c r="L26" s="7">
-        <f>SUM(L22:L25)</f>
+      <c r="L26" s="6">
+        <f t="shared" si="20"/>
         <v>2727.3</v>
       </c>
-      <c r="M26" s="7">
-        <f>SUM(M22:M25)</f>
+      <c r="M26" s="6">
+        <f t="shared" si="20"/>
         <v>2974.8</v>
       </c>
-      <c r="N26" s="7">
-        <f>+N14*N16</f>
-        <v>2971.1847413793103</v>
-      </c>
-      <c r="T26" s="7">
+      <c r="N26" s="6">
+        <f t="shared" si="18"/>
+        <v>2957.2999999999993</v>
+      </c>
+      <c r="T26" s="6">
         <v>8080.1</v>
       </c>
-      <c r="U26" s="7">
+      <c r="U26" s="6">
         <v>8510.4</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="6">
         <v>7806</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="6">
         <v>7196.1</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="6">
         <v>9630</v>
       </c>
-      <c r="Y26" s="7">
+      <c r="Y26" s="6">
         <v>10487.8</v>
       </c>
-      <c r="Z26" s="7">
-        <f>SUM(K26:N26)</f>
-        <v>11403.884741379312</v>
-      </c>
-      <c r="AA26" s="7">
-        <f>+AA14*AA16</f>
-        <v>11714.52996998155</v>
-      </c>
-      <c r="AB26" s="7">
-        <f>+AB14*AB16</f>
-        <v>12375.785422345489</v>
-      </c>
-      <c r="AC26" s="7">
-        <f>+AC14*AC16</f>
-        <v>13049.094530759709</v>
-      </c>
-      <c r="AD26" s="7">
-        <f>+AD14*AD16</f>
-        <v>13734.632242799978</v>
-      </c>
-      <c r="AE26" s="7">
-        <f>+AE14*AE16</f>
-        <v>14432.575799627979</v>
-      </c>
-      <c r="AF26" s="7">
-        <f>+AF14*AF16</f>
-        <v>15143.104764368256</v>
-      </c>
-      <c r="AG26" s="7">
-        <f>+AG14*AG16</f>
-        <v>15866.401050823377</v>
-      </c>
-      <c r="AH26" s="7">
-        <f>+AH14*AH16</f>
-        <v>16602.648952531163</v>
-      </c>
-      <c r="AI26" s="7">
-        <f>+AI14*AI16</f>
-        <v>17352.035172168024</v>
+      <c r="Z26" s="6">
+        <f>SUM(Z22:Z25)</f>
+        <v>11390</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" ref="AA26:AI26" si="21">+AA14*AA16</f>
+        <v>11711.79133431807</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="21"/>
+        <v>12383.996495322501</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="21"/>
+        <v>13068.474580413589</v>
+      </c>
+      <c r="AD26" s="6">
+        <f t="shared" si="21"/>
+        <v>13765.403827556966</v>
+      </c>
+      <c r="AE26" s="6">
+        <f t="shared" si="21"/>
+        <v>14474.96481218517</v>
+      </c>
+      <c r="AF26" s="6">
+        <f t="shared" si="21"/>
+        <v>15197.340476123181</v>
+      </c>
+      <c r="AG26" s="6">
+        <f t="shared" si="21"/>
+        <v>15932.716156858734</v>
+      </c>
+      <c r="AH26" s="6">
+        <f t="shared" si="21"/>
+        <v>16681.279617161388</v>
+      </c>
+      <c r="AI26" s="6">
+        <f t="shared" si="21"/>
+        <v>17443.221075054407</v>
       </c>
     </row>
     <row r="27" spans="2:35">
@@ -3996,7 +4650,7 @@
         <v>752.7</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ref="F27:F36" si="17">+X27-SUM(C27:E27)</f>
+        <f t="shared" ref="F27:F36" si="22">+X27-SUM(C27:E27)</f>
         <v>811.40000000000009</v>
       </c>
       <c r="G27" s="1">
@@ -4009,7 +4663,7 @@
         <v>887</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ref="J27:J36" si="18">+Y27-SUM(G27:I27)</f>
+        <f t="shared" ref="J27:J36" si="23">+Y27-SUM(G27:I27)</f>
         <v>855.30000000000018</v>
       </c>
       <c r="K27" s="1">
@@ -4022,8 +4676,8 @@
         <v>920.2</v>
       </c>
       <c r="N27" s="1">
-        <f>+J27*1.03</f>
-        <v>880.95900000000017</v>
+        <f t="shared" si="18"/>
+        <v>906.90000000000009</v>
       </c>
       <c r="V27" s="1">
         <v>2240.8000000000002</v>
@@ -4038,44 +4692,43 @@
         <v>3355.9</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" ref="Z27:Z39" si="19">SUM(K27:N27)</f>
-        <v>3497.9590000000003</v>
+        <v>3523.9</v>
       </c>
       <c r="AA27" s="1">
         <f>+AA$26*(Z27/Z$26)</f>
-        <v>3593.2444485852011</v>
+        <v>3623.4575489906451</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" ref="AB27:AH27" si="20">+AB$26*(AA27/AA$26)</f>
-        <v>3796.0739679421067</v>
+        <f t="shared" ref="AB27:AH27" si="24">+AB$26*(AA27/AA$26)</f>
+        <v>3831.4280289611033</v>
       </c>
       <c r="AC27" s="1">
-        <f t="shared" si="20"/>
-        <v>4002.6007532412914</v>
+        <f t="shared" si="24"/>
+        <v>4043.1955727760715</v>
       </c>
       <c r="AD27" s="1">
-        <f t="shared" si="20"/>
-        <v>4212.8784668496664</v>
+        <f t="shared" si="24"/>
+        <v>4258.8153246644424</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="20"/>
-        <v>4426.961474654885</v>
+        <f t="shared" si="24"/>
+        <v>4478.3431520333033</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="20"/>
-        <v>4644.904854769522</v>
+        <f t="shared" si="24"/>
+        <v>4701.8356544170747</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="20"/>
-        <v>4866.7644063389862</v>
+        <f t="shared" si="24"/>
+        <v>4929.350172533319</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="20"/>
-        <v>5092.5966584543621</v>
+        <f t="shared" si="24"/>
+        <v>5160.9447974464465</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" ref="AI27" si="21">+AI$26*(AH27/AH$26)</f>
-        <v>5322.4588791714123</v>
+        <f t="shared" ref="AI27" si="25">+AI$26*(AH27/AH$26)</f>
+        <v>5396.6783798405822</v>
       </c>
     </row>
     <row r="28" spans="2:35">
@@ -4092,7 +4745,7 @@
         <v>798.7</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>829.30000000000018</v>
       </c>
       <c r="G28" s="1">
@@ -4105,7 +4758,7 @@
         <v>874.2</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>869.80000000000018</v>
       </c>
       <c r="K28" s="1">
@@ -4118,8 +4771,8 @@
         <v>937.1</v>
       </c>
       <c r="N28" s="1">
-        <f>+J28-1.03</f>
-        <v>868.77000000000021</v>
+        <f t="shared" si="18"/>
+        <v>926.00000000000045</v>
       </c>
       <c r="V28" s="1">
         <v>2682.6</v>
@@ -4134,44 +4787,43 @@
         <v>3346.3</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="19"/>
-        <v>3562.0699999999997</v>
+        <v>3619.3</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" ref="AA28:AH32" si="22">+AA$26*(Z28/Z$26)</f>
-        <v>3659.1018513858753</v>
+        <f t="shared" ref="AA28:AH32" si="26">+AA$26*(Z28/Z$26)</f>
+        <v>3721.5527986213688</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="22"/>
-        <v>3865.6488537994687</v>
+        <f t="shared" si="26"/>
+        <v>3935.1535132151648</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="22"/>
-        <v>4075.9608860761959</v>
+        <f t="shared" si="26"/>
+        <v>4152.654086820975</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="22"/>
-        <v>4290.0925941130772</v>
+        <f t="shared" si="26"/>
+        <v>4374.1111565475794</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="22"/>
-        <v>4508.0993402220893</v>
+        <f t="shared" si="26"/>
+        <v>4599.5821022600339</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="22"/>
-        <v>4730.0372119938693</v>
+        <f t="shared" si="26"/>
+        <v>4829.1250557710828</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="22"/>
-        <v>4955.9630312670624</v>
+        <f t="shared" si="26"/>
+        <v>5062.7989101421263</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="22"/>
-        <v>5185.9343632045202</v>
+        <f t="shared" si="26"/>
+        <v>5300.663329095014</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" ref="AI28" si="23">+AI$26*(AH28/AH$26)</f>
-        <v>5420.0095254776015</v>
+        <f t="shared" ref="AI28" si="27">+AI$26*(AH28/AH$26)</f>
+        <v>5542.7787565359458</v>
       </c>
     </row>
     <row r="29" spans="2:35">
@@ -4188,7 +4840,7 @@
         <v>395.7</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>423.79999999999995</v>
       </c>
       <c r="G29" s="1">
@@ -4201,7 +4853,7 @@
         <v>440.3</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>441.40000000000009</v>
       </c>
       <c r="K29" s="1">
@@ -4214,8 +4866,8 @@
         <v>471.9</v>
       </c>
       <c r="N29" s="1">
-        <f>+J29-1.03</f>
-        <v>440.37000000000012</v>
+        <f t="shared" si="18"/>
+        <v>467.69999999999982</v>
       </c>
       <c r="V29" s="1">
         <v>1475.1</v>
@@ -4230,44 +4882,43 @@
         <v>1702.2</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="19"/>
-        <v>1809.2700000000002</v>
+        <v>1836.6</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="22"/>
-        <v>1858.5550555314533</v>
+        <f t="shared" si="26"/>
+        <v>1888.4877932053175</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="22"/>
-        <v>1963.4657661735357</v>
+        <f t="shared" si="26"/>
+        <v>1996.8786622747414</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="22"/>
-        <v>2070.2888355229065</v>
+        <f t="shared" si="26"/>
+        <v>2107.2484999462336</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="22"/>
-        <v>2179.0520196826474</v>
+        <f t="shared" si="26"/>
+        <v>2219.6260465049272</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="22"/>
-        <v>2289.7834386420313</v>
+        <f t="shared" si="26"/>
+        <v>2334.0404191448006</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="22"/>
-        <v>2402.5115807786337</v>
+        <f t="shared" si="26"/>
+        <v>2450.5211166328208</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="22"/>
-        <v>2517.2653074141044</v>
+        <f t="shared" si="26"/>
+        <v>2569.0980240286872</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="22"/>
-        <v>2634.0738574242064</v>
+        <f t="shared" si="26"/>
+        <v>2689.8014174608079</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" ref="AI29" si="24">+AI$26*(AH29/AH$26)</f>
-        <v>2752.9668519037696</v>
+        <f t="shared" ref="AI29" si="28">+AI$26*(AH29/AH$26)</f>
+        <v>2812.6619689591676</v>
       </c>
     </row>
     <row r="30" spans="2:35">
@@ -4284,7 +4935,7 @@
         <v>27.2</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>20.200000000000003</v>
       </c>
       <c r="G30" s="1">
@@ -4297,7 +4948,7 @@
         <v>28.2</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>28.699999999999989</v>
       </c>
       <c r="K30" s="1">
@@ -4310,8 +4961,8 @@
         <v>31.7</v>
       </c>
       <c r="N30" s="1">
-        <f>+J30-1.03</f>
-        <v>27.669999999999987</v>
+        <f t="shared" si="18"/>
+        <v>37.299999999999997</v>
       </c>
       <c r="V30" s="1">
         <v>238</v>
@@ -4326,44 +4977,43 @@
         <v>118.3</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="19"/>
-        <v>134.87</v>
+        <v>144.5</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="22"/>
-        <v>138.54389910821882</v>
+        <f t="shared" si="26"/>
+        <v>148.58242737567699</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="22"/>
-        <v>146.36435019860207</v>
+        <f t="shared" si="26"/>
+        <v>157.11040329886751</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="22"/>
-        <v>154.32735592088213</v>
+        <f t="shared" si="26"/>
+        <v>165.79408049778431</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="22"/>
-        <v>162.43498532258795</v>
+        <f t="shared" si="26"/>
+        <v>174.63572020034954</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="22"/>
-        <v>170.6893345767358</v>
+        <f t="shared" si="26"/>
+        <v>183.6376132889163</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="22"/>
-        <v>179.0925273174343</v>
+        <f t="shared" si="26"/>
+        <v>192.80208066723435</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="22"/>
-        <v>187.64671497948913</v>
+        <f t="shared" si="26"/>
+        <v>202.13147363178987</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="22"/>
-        <v>196.35407714205328</v>
+        <f t="shared" si="26"/>
+        <v>211.6281742475698</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" ref="AI30" si="25">+AI$26*(AH30/AH$26)</f>
-        <v>205.21682187637083</v>
+        <f t="shared" ref="AI30" si="29">+AI$26*(AH30/AH$26)</f>
+        <v>221.29459572830214</v>
       </c>
     </row>
     <row r="31" spans="2:35">
@@ -4380,7 +5030,7 @@
         <v>83.3</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>85.199999999999989</v>
       </c>
       <c r="G31" s="1">
@@ -4393,7 +5043,7 @@
         <v>107</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>100.40000000000003</v>
       </c>
       <c r="K31" s="1">
@@ -4406,8 +5056,8 @@
         <v>108.2</v>
       </c>
       <c r="N31" s="1">
-        <f>+N$26*(J31/J$26)</f>
-        <v>107.73093103448278</v>
+        <f t="shared" si="18"/>
+        <v>102.89999999999998</v>
       </c>
       <c r="V31" s="1">
         <v>376.4</v>
@@ -4422,44 +5072,43 @@
         <v>386.1</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="19"/>
-        <v>484.03093103448282</v>
+        <v>479.2</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="22"/>
-        <v>497.21607825682963</v>
+        <f t="shared" si="26"/>
+        <v>492.73840275726241</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" si="22"/>
-        <v>525.28266254086486</v>
+        <f t="shared" si="26"/>
+        <v>521.01941356967006</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="22"/>
-        <v>553.86085690275502</v>
+        <f t="shared" si="26"/>
+        <v>549.81677075805021</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="22"/>
-        <v>582.95808688562897</v>
+        <f t="shared" si="26"/>
+        <v>579.13797314884096</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="22"/>
-        <v>612.58187538247012</v>
+        <f t="shared" si="26"/>
+        <v>608.99061791037172</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="22"/>
-        <v>642.7398438405595</v>
+        <f t="shared" si="26"/>
+        <v>639.38240176981822</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="22"/>
-        <v>673.43971348027242</v>
+        <f t="shared" si="26"/>
+        <v>670.32112224466255</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="22"/>
-        <v>704.68930652839549</v>
+        <f t="shared" si="26"/>
+        <v>701.81467888882685</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" ref="AI31" si="26">+AI$26*(AH31/AH$26)</f>
-        <v>736.49654746613305</v>
+        <f t="shared" ref="AI31" si="30">+AI$26*(AH31/AH$26)</f>
+        <v>733.87107455364992</v>
       </c>
     </row>
     <row r="32" spans="2:35">
@@ -4476,7 +5125,7 @@
         <v>94.3</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>93</v>
       </c>
       <c r="G32" s="1">
@@ -4489,7 +5138,7 @@
         <v>98.3</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>97.100000000000023</v>
       </c>
       <c r="K32" s="1">
@@ -4502,8 +5151,8 @@
         <v>117.9</v>
       </c>
       <c r="N32" s="1">
-        <f>+N$26*(J32/J$26)</f>
-        <v>104.18997413793106</v>
+        <f t="shared" si="18"/>
+        <v>119.69999999999993</v>
       </c>
       <c r="V32" s="1">
         <v>355.9</v>
@@ -4518,153 +5167,152 @@
         <v>387.8</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" si="19"/>
-        <v>444.38997413793112</v>
+        <v>459.9</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" si="22"/>
-        <v>456.49528984703426</v>
+        <f t="shared" si="26"/>
+        <v>472.89313737075332</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" si="22"/>
-        <v>482.26328908928497</v>
+        <f t="shared" si="26"/>
+        <v>500.03511748892168</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" si="22"/>
-        <v>508.50099878739604</v>
+        <f t="shared" si="26"/>
+        <v>527.67264789571641</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" si="22"/>
-        <v>535.21523635056042</v>
+        <f t="shared" si="26"/>
+        <v>555.81292539889807</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" si="22"/>
-        <v>562.41290856510932</v>
+        <f t="shared" si="26"/>
+        <v>584.46324118735379</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="22"/>
-        <v>590.10101270031407</v>
+        <f t="shared" si="26"/>
+        <v>613.63098199903868</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="22"/>
-        <v>618.28663762736642</v>
+        <f t="shared" si="26"/>
+        <v>643.32363130283852</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="22"/>
-        <v>646.97696495168975</v>
+        <f t="shared" si="26"/>
+        <v>673.54877049451454</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" ref="AI32" si="27">+AI$26*(AH32/AH$26)</f>
-        <v>676.17927015873693</v>
-      </c>
-    </row>
-    <row r="33" spans="2:225">
-      <c r="B33" s="1" t="s">
+        <f t="shared" ref="AI32" si="31">+AI$26*(AH32/AH$26)</f>
+        <v>704.31408010689381</v>
+      </c>
+    </row>
+    <row r="33" spans="2:225" s="6" customFormat="1">
+      <c r="B33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" ref="C33:N33" si="28">+C26-SUM(C27:C32)</f>
+      <c r="C33" s="6">
+        <f t="shared" ref="C33:N33" si="32">+C26-SUM(C27:C32)</f>
         <v>280.59999999999991</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="28"/>
+      <c r="D33" s="6">
+        <f t="shared" si="32"/>
         <v>242.60000000000014</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="28"/>
+      <c r="E33" s="6">
+        <f t="shared" si="32"/>
         <v>296.99999999999955</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="28"/>
+      <c r="F33" s="6">
+        <f t="shared" si="32"/>
         <v>340.00000000000045</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="28"/>
+      <c r="G33" s="6">
+        <f t="shared" si="32"/>
         <v>239.30000000000064</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="28"/>
+      <c r="H33" s="6">
+        <f t="shared" si="32"/>
         <v>224.39999999999964</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="28"/>
+      <c r="I33" s="6">
+        <f t="shared" si="32"/>
         <v>351.20000000000027</v>
       </c>
-      <c r="J33" s="1">
-        <f t="shared" si="28"/>
+      <c r="J33" s="6">
+        <f t="shared" si="32"/>
         <v>376.29999999999973</v>
       </c>
-      <c r="K33" s="1">
-        <f t="shared" si="28"/>
+      <c r="K33" s="6">
+        <f t="shared" si="32"/>
         <v>255.99999999999955</v>
       </c>
-      <c r="L33" s="1">
-        <f t="shared" si="28"/>
+      <c r="L33" s="6">
+        <f t="shared" si="32"/>
         <v>286</v>
       </c>
-      <c r="M33" s="1">
-        <f t="shared" si="28"/>
+      <c r="M33" s="6">
+        <f t="shared" si="32"/>
         <v>387.80000000000018</v>
       </c>
-      <c r="N33" s="1">
-        <f t="shared" si="28"/>
-        <v>541.49483620689625</v>
-      </c>
-      <c r="V33" s="1">
+      <c r="N33" s="6">
+        <f t="shared" si="32"/>
+        <v>396.79999999999882</v>
+      </c>
+      <c r="V33" s="6">
         <f>+V26-SUM(V27:V32)</f>
         <v>437.20000000000073</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="6">
         <f>+W26-SUM(W27:W32)</f>
         <v>655.30000000000109</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="6">
         <f>+X26-SUM(X27:X32)</f>
         <v>1160.2000000000007</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y33" s="6">
         <f>+Y26-SUM(Y27:Y32)</f>
         <v>1191.1999999999989</v>
       </c>
-      <c r="Z33" s="1">
-        <f t="shared" si="19"/>
-        <v>1471.294836206896</v>
-      </c>
-      <c r="AA33" s="1">
+      <c r="Z33" s="6">
+        <f>+Z26-SUM(Z27:Z32)</f>
+        <v>1326.5999999999985</v>
+      </c>
+      <c r="AA33" s="6">
         <f>+AA26-SUM(AA27:AA32)</f>
-        <v>1511.3733472669355</v>
-      </c>
-      <c r="AB33" s="1">
-        <f t="shared" ref="AB33:AI33" si="29">+AB26-SUM(AB27:AB32)</f>
-        <v>1596.6865326016232</v>
-      </c>
-      <c r="AC33" s="1">
-        <f t="shared" si="29"/>
-        <v>1683.5548443082807</v>
-      </c>
-      <c r="AD33" s="1">
-        <f t="shared" si="29"/>
-        <v>1772.0008535958095</v>
-      </c>
-      <c r="AE33" s="1">
-        <f t="shared" si="29"/>
-        <v>1862.0474275846573</v>
-      </c>
-      <c r="AF33" s="1">
-        <f t="shared" si="29"/>
-        <v>1953.7177329679234</v>
-      </c>
-      <c r="AG33" s="1">
-        <f t="shared" si="29"/>
-        <v>2047.0352397160932</v>
-      </c>
-      <c r="AH33" s="1">
-        <f t="shared" si="29"/>
-        <v>2142.0237248259364</v>
-      </c>
-      <c r="AI33" s="1">
-        <f t="shared" si="29"/>
-        <v>2238.7072761139989</v>
+        <v>1364.0792259970458</v>
+      </c>
+      <c r="AB33" s="6">
+        <f t="shared" ref="AB33:AI33" si="33">+AB26-SUM(AB27:AB32)</f>
+        <v>1442.3713565140315</v>
+      </c>
+      <c r="AC33" s="6">
+        <f t="shared" si="33"/>
+        <v>1522.0929217187568</v>
+      </c>
+      <c r="AD33" s="6">
+        <f t="shared" si="33"/>
+        <v>1603.2646810919287</v>
+      </c>
+      <c r="AE33" s="6">
+        <f t="shared" si="33"/>
+        <v>1685.9076663603901</v>
+      </c>
+      <c r="AF33" s="6">
+        <f t="shared" si="33"/>
+        <v>1770.0431848661119</v>
+      </c>
+      <c r="AG33" s="6">
+        <f t="shared" si="33"/>
+        <v>1855.6928229753103</v>
+      </c>
+      <c r="AH33" s="6">
+        <f t="shared" si="33"/>
+        <v>1942.8784495282089</v>
+      </c>
+      <c r="AI33" s="6">
+        <f t="shared" si="33"/>
+        <v>2031.6222193298654</v>
       </c>
     </row>
     <row r="34" spans="2:225">
@@ -4681,7 +5329,7 @@
         <v>17.5</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>18.900000000000006</v>
       </c>
       <c r="G34" s="1">
@@ -4694,7 +5342,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22.099999999999994</v>
       </c>
       <c r="K34" s="1">
@@ -4707,8 +5355,8 @@
         <v>36.5</v>
       </c>
       <c r="N34" s="1">
-        <f>+N33*(M34/M33)</f>
-        <v>50.96586261359387</v>
+        <f t="shared" si="18"/>
+        <v>35.399999999999991</v>
       </c>
       <c r="V34" s="1">
         <f>57.3+151.6</f>
@@ -4725,44 +5373,43 @@
         <v>81.3</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="19"/>
-        <v>154.26586261359387</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="AA34" s="1">
         <f>+AA33*(Z34/Z33)</f>
-        <v>158.46811081619413</v>
+        <v>142.61856523879877</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" ref="AB34:AI34" si="30">+AB33*(AA34/AA33)</f>
-        <v>167.41323303377681</v>
+        <f t="shared" ref="AB34:AI34" si="34">+AB33*(AA34/AA33)</f>
+        <v>150.80424178237325</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="30"/>
-        <v>176.52141088462983</v>
+        <f t="shared" si="34"/>
+        <v>159.13937000029532</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="30"/>
-        <v>185.79501096919637</v>
+        <f t="shared" si="34"/>
+        <v>167.62612035839794</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="30"/>
-        <v>195.23643091436568</v>
+        <f t="shared" si="34"/>
+        <v>176.26669178666239</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="30"/>
-        <v>204.84809975734157</v>
+        <f t="shared" si="34"/>
+        <v>185.06331203145635</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="30"/>
-        <v>214.63247833408519</v>
+        <f t="shared" si="34"/>
+        <v>194.0182380119673</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="30"/>
-        <v>224.59205967238867</v>
+        <f t="shared" si="34"/>
+        <v>203.13375618088563</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="30"/>
-        <v>234.7293693896242</v>
+        <f t="shared" si="34"/>
+        <v>212.41218288938086</v>
       </c>
     </row>
     <row r="35" spans="2:225">
@@ -4770,52 +5417,52 @@
         <v>23</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" ref="C35:N35" si="31">+C33-C34</f>
+        <f t="shared" ref="C35:N35" si="35">+C33-C34</f>
         <v>264.99999999999989</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>225.90000000000015</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>279.49999999999955</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>321.10000000000048</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>219.50000000000063</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>204.59999999999962</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>331.60000000000025</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>354.1999999999997</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>226.29999999999956</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>248.9</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>351.30000000000018</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="31"/>
-        <v>490.5289735933024</v>
+        <f t="shared" si="35"/>
+        <v>361.39999999999884</v>
       </c>
       <c r="V35" s="1">
         <f>+V33-V34</f>
@@ -4834,44 +5481,44 @@
         <v>1109.899999999999</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="19"/>
-        <v>1317.0289735933022</v>
+        <f>+Z33-Z34</f>
+        <v>1187.8999999999985</v>
       </c>
       <c r="AA35" s="1">
         <f>+AA33-AA34</f>
-        <v>1352.9052364507413</v>
+        <v>1221.4606607582471</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" ref="AB35:AI35" si="32">+AB33-AB34</f>
-        <v>1429.2732995678464</v>
+        <f t="shared" ref="AB35:AI35" si="36">+AB33-AB34</f>
+        <v>1291.5671147316582</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="32"/>
-        <v>1507.0334334236509</v>
+        <f t="shared" si="36"/>
+        <v>1362.9535517184615</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="32"/>
-        <v>1586.205842626613</v>
+        <f t="shared" si="36"/>
+        <v>1435.6385607335308</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="32"/>
-        <v>1666.8109966702916</v>
+        <f t="shared" si="36"/>
+        <v>1509.6409745737276</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="32"/>
-        <v>1748.8696332105819</v>
+        <f t="shared" si="36"/>
+        <v>1584.9798728346555</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="32"/>
-        <v>1832.4027613820081</v>
+        <f t="shared" si="36"/>
+        <v>1661.674584963343</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="32"/>
-        <v>1917.4316651535478</v>
+        <f t="shared" si="36"/>
+        <v>1739.7446933473232</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="32"/>
-        <v>2003.9779067243746</v>
+        <f t="shared" si="36"/>
+        <v>1819.2100364404846</v>
       </c>
     </row>
     <row r="36" spans="2:225">
@@ -4888,7 +5535,7 @@
         <v>35.4</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>37.600000000000023</v>
       </c>
       <c r="G36" s="1">
@@ -4901,7 +5548,7 @@
         <v>43.5</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>36.799999999999997</v>
       </c>
       <c r="K36" s="1">
@@ -4914,8 +5561,8 @@
         <v>37.5</v>
       </c>
       <c r="N36" s="1">
-        <f>+N35*0.12</f>
-        <v>58.863476831196287</v>
+        <f t="shared" si="18"/>
+        <v>50</v>
       </c>
       <c r="V36" s="1">
         <v>-3.2</v>
@@ -4930,44 +5577,43 @@
         <v>137</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="19"/>
-        <v>153.86347683119629</v>
+        <v>145</v>
       </c>
       <c r="AA36" s="1">
         <f>+AA35*(Z36/Z35)</f>
-        <v>158.0547639248241</v>
+        <v>149.09655342195981</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" ref="AB36:AI36" si="33">+AB35*(AA36/AA35)</f>
-        <v>166.97655376062653</v>
+        <f t="shared" ref="AB36:AI36" si="37">+AB35*(AA36/AA35)</f>
+        <v>157.65403791235852</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="33"/>
-        <v>176.0609739167528</v>
+        <f t="shared" si="37"/>
+        <v>166.36776243722298</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="33"/>
-        <v>185.31038482062536</v>
+        <f t="shared" si="37"/>
+        <v>175.23999604879387</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="33"/>
-        <v>194.72717784518363</v>
+        <f t="shared" si="37"/>
+        <v>184.27303755635222</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="33"/>
-        <v>204.31377569175109</v>
+        <f t="shared" si="37"/>
+        <v>193.46921589445691</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="33"/>
-        <v>214.07263277746506</v>
+        <f t="shared" si="37"/>
+        <v>202.83089049556787</v>
       </c>
       <c r="AH36" s="1">
-        <f t="shared" si="33"/>
-        <v>224.00623562732483</v>
+        <f t="shared" si="37"/>
+        <v>212.3604516671119</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" si="33"/>
-        <v>234.11710327090341</v>
+        <f t="shared" si="37"/>
+        <v>222.06032097303699</v>
       </c>
     </row>
     <row r="37" spans="2:225">
@@ -4975,52 +5621,52 @@
         <v>25</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:N37" si="34">+C35-C36</f>
+        <f t="shared" ref="C37:N37" si="38">+C35-C36</f>
         <v>231.69999999999987</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>193.40000000000015</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>244.09999999999954</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>283.50000000000045</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>188.70000000000061</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>178.69999999999962</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>288.10000000000025</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>317.39999999999969</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>197.89999999999955</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>219.8</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>313.80000000000018</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="34"/>
-        <v>431.6654967621061</v>
+        <f t="shared" si="38"/>
+        <v>311.39999999999884</v>
       </c>
       <c r="V37" s="1">
         <f>+V35-V36-3.1</f>
@@ -5039,804 +5685,804 @@
         <v>971.29999999999893</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="19"/>
-        <v>1163.1654967621059</v>
+        <f>+Z35-Z36</f>
+        <v>1042.8999999999985</v>
       </c>
       <c r="AA37" s="1">
         <f>+AA35-AA36-1.6</f>
-        <v>1193.2504725259173</v>
+        <v>1070.7641073362875</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" ref="AB37:AI37" si="35">+AB35-AB36-1.6</f>
-        <v>1260.6967458072199</v>
+        <f t="shared" ref="AB37:AI37" si="39">+AB35-AB36-1.6</f>
+        <v>1132.3130768192998</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="35"/>
-        <v>1329.3724595068982</v>
+        <f t="shared" si="39"/>
+        <v>1194.9857892812386</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="35"/>
-        <v>1399.2954578059878</v>
+        <f t="shared" si="39"/>
+        <v>1258.7985646847369</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="35"/>
-        <v>1470.4838188251081</v>
+        <f t="shared" si="39"/>
+        <v>1323.7679370173755</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="35"/>
-        <v>1542.955857518831</v>
+        <f t="shared" si="39"/>
+        <v>1389.9106569401986</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="35"/>
-        <v>1616.7301286045431</v>
+        <f t="shared" si="39"/>
+        <v>1457.2436944677752</v>
       </c>
       <c r="AH37" s="1">
-        <f t="shared" si="35"/>
-        <v>1691.8254295262232</v>
+        <f t="shared" si="39"/>
+        <v>1525.7842416802114</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" si="35"/>
-        <v>1768.2608034534712</v>
+        <f t="shared" si="39"/>
+        <v>1595.5497154674476</v>
       </c>
       <c r="AJ37" s="1">
         <f>+AI37*(1+$AL$45)</f>
-        <v>1785.9434114880059</v>
+        <v>1611.5052126221221</v>
       </c>
       <c r="AK37" s="1">
-        <f t="shared" ref="AK37" si="36">+AJ37*(1+$AL$45)</f>
-        <v>1803.802845602886</v>
+        <f t="shared" ref="AK37" si="40">+AJ37*(1+$AL$45)</f>
+        <v>1627.6202647483433</v>
       </c>
       <c r="AL37" s="1">
-        <f t="shared" ref="AL37:CW37" si="37">+AK37*(1+$AL$45)</f>
-        <v>1821.8408740589148</v>
+        <f t="shared" ref="AL37:CW37" si="41">+AK37*(1+$AL$45)</f>
+        <v>1643.8964673958267</v>
       </c>
       <c r="AM37" s="1">
-        <f t="shared" si="37"/>
-        <v>1840.059282799504</v>
+        <f t="shared" si="41"/>
+        <v>1660.3354320697849</v>
       </c>
       <c r="AN37" s="1">
-        <f t="shared" si="37"/>
-        <v>1858.4598756274991</v>
+        <f t="shared" si="41"/>
+        <v>1676.9387863904828</v>
       </c>
       <c r="AO37" s="1">
-        <f t="shared" si="37"/>
-        <v>1877.0444743837741</v>
+        <f t="shared" si="41"/>
+        <v>1693.7081742543876</v>
       </c>
       <c r="AP37" s="1">
-        <f t="shared" si="37"/>
-        <v>1895.8149191276118</v>
+        <f t="shared" si="41"/>
+        <v>1710.6452559969314</v>
       </c>
       <c r="AQ37" s="1">
-        <f t="shared" si="37"/>
-        <v>1914.7730683188879</v>
+        <f t="shared" si="41"/>
+        <v>1727.7517085569007</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" si="37"/>
-        <v>1933.9207990020768</v>
+        <f t="shared" si="41"/>
+        <v>1745.0292256424698</v>
       </c>
       <c r="AS37" s="1">
-        <f t="shared" si="37"/>
-        <v>1953.2600069920977</v>
+        <f t="shared" si="41"/>
+        <v>1762.4795178988945</v>
       </c>
       <c r="AT37" s="1">
-        <f t="shared" si="37"/>
-        <v>1972.7926070620188</v>
+        <f t="shared" si="41"/>
+        <v>1780.1043130778835</v>
       </c>
       <c r="AU37" s="1">
-        <f t="shared" si="37"/>
-        <v>1992.520533132639</v>
+        <f t="shared" si="41"/>
+        <v>1797.9053562086624</v>
       </c>
       <c r="AV37" s="1">
-        <f t="shared" si="37"/>
-        <v>2012.4457384639654</v>
+        <f t="shared" si="41"/>
+        <v>1815.884409770749</v>
       </c>
       <c r="AW37" s="1">
-        <f t="shared" si="37"/>
-        <v>2032.5701958486052</v>
+        <f t="shared" si="41"/>
+        <v>1834.0432538684565</v>
       </c>
       <c r="AX37" s="1">
-        <f t="shared" si="37"/>
-        <v>2052.8958978070914</v>
+        <f t="shared" si="41"/>
+        <v>1852.3836864071411</v>
       </c>
       <c r="AY37" s="1">
-        <f t="shared" si="37"/>
-        <v>2073.4248567851623</v>
+        <f t="shared" si="41"/>
+        <v>1870.9075232712125</v>
       </c>
       <c r="AZ37" s="1">
-        <f t="shared" si="37"/>
-        <v>2094.1591053530142</v>
+        <f t="shared" si="41"/>
+        <v>1889.6165985039247</v>
       </c>
       <c r="BA37" s="1">
-        <f t="shared" si="37"/>
-        <v>2115.1006964065446</v>
+        <f t="shared" si="41"/>
+        <v>1908.512764488964</v>
       </c>
       <c r="BB37" s="1">
-        <f t="shared" si="37"/>
-        <v>2136.2517033706099</v>
+        <f t="shared" si="41"/>
+        <v>1927.5978921338535</v>
       </c>
       <c r="BC37" s="1">
-        <f t="shared" si="37"/>
-        <v>2157.6142204043158</v>
+        <f t="shared" si="41"/>
+        <v>1946.873871055192</v>
       </c>
       <c r="BD37" s="1">
-        <f t="shared" si="37"/>
-        <v>2179.190362608359</v>
+        <f t="shared" si="41"/>
+        <v>1966.3426097657439</v>
       </c>
       <c r="BE37" s="1">
-        <f t="shared" si="37"/>
-        <v>2200.9822662344427</v>
+        <f t="shared" si="41"/>
+        <v>1986.0060358634014</v>
       </c>
       <c r="BF37" s="1">
-        <f t="shared" si="37"/>
-        <v>2222.9920888967872</v>
+        <f t="shared" si="41"/>
+        <v>2005.8660962220354</v>
       </c>
       <c r="BG37" s="1">
-        <f t="shared" si="37"/>
-        <v>2245.2220097857553</v>
+        <f t="shared" si="41"/>
+        <v>2025.9247571842557</v>
       </c>
       <c r="BH37" s="1">
-        <f t="shared" si="37"/>
-        <v>2267.674229883613</v>
+        <f t="shared" si="41"/>
+        <v>2046.1840047560981</v>
       </c>
       <c r="BI37" s="1">
-        <f t="shared" si="37"/>
-        <v>2290.3509721824489</v>
+        <f t="shared" si="41"/>
+        <v>2066.6458448036592</v>
       </c>
       <c r="BJ37" s="1">
-        <f t="shared" si="37"/>
-        <v>2313.2544819042732</v>
+        <f t="shared" si="41"/>
+        <v>2087.312303251696</v>
       </c>
       <c r="BK37" s="1">
-        <f t="shared" si="37"/>
-        <v>2336.387026723316</v>
+        <f t="shared" si="41"/>
+        <v>2108.185426284213</v>
       </c>
       <c r="BL37" s="1">
-        <f t="shared" si="37"/>
-        <v>2359.7508969905493</v>
+        <f t="shared" si="41"/>
+        <v>2129.2672805470552</v>
       </c>
       <c r="BM37" s="1">
-        <f t="shared" si="37"/>
-        <v>2383.3484059604548</v>
+        <f t="shared" si="41"/>
+        <v>2150.5599533525256</v>
       </c>
       <c r="BN37" s="1">
-        <f t="shared" si="37"/>
-        <v>2407.1818900200592</v>
+        <f t="shared" si="41"/>
+        <v>2172.0655528860507</v>
       </c>
       <c r="BO37" s="1">
-        <f t="shared" si="37"/>
-        <v>2431.2537089202597</v>
+        <f t="shared" si="41"/>
+        <v>2193.786208414911</v>
       </c>
       <c r="BP37" s="1">
-        <f t="shared" si="37"/>
-        <v>2455.5662460094622</v>
+        <f t="shared" si="41"/>
+        <v>2215.72407049906</v>
       </c>
       <c r="BQ37" s="1">
-        <f t="shared" si="37"/>
-        <v>2480.1219084695567</v>
+        <f t="shared" si="41"/>
+        <v>2237.8813112040507</v>
       </c>
       <c r="BR37" s="1">
-        <f t="shared" si="37"/>
-        <v>2504.9231275542525</v>
+        <f t="shared" si="41"/>
+        <v>2260.2601243160912</v>
       </c>
       <c r="BS37" s="1">
-        <f t="shared" si="37"/>
-        <v>2529.9723588297952</v>
+        <f t="shared" si="41"/>
+        <v>2282.8627255592519</v>
       </c>
       <c r="BT37" s="1">
-        <f t="shared" si="37"/>
-        <v>2555.2720824180933</v>
+        <f t="shared" si="41"/>
+        <v>2305.6913528148443</v>
       </c>
       <c r="BU37" s="1">
-        <f t="shared" si="37"/>
-        <v>2580.8248032422744</v>
+        <f t="shared" si="41"/>
+        <v>2328.7482663429928</v>
       </c>
       <c r="BV37" s="1">
-        <f t="shared" si="37"/>
-        <v>2606.6330512746972</v>
+        <f t="shared" si="41"/>
+        <v>2352.0357490064225</v>
       </c>
       <c r="BW37" s="1">
-        <f t="shared" si="37"/>
-        <v>2632.6993817874441</v>
+        <f t="shared" si="41"/>
+        <v>2375.5561064964868</v>
       </c>
       <c r="BX37" s="1">
-        <f t="shared" si="37"/>
-        <v>2659.0263756053187</v>
+        <f t="shared" si="41"/>
+        <v>2399.3116675614515</v>
       </c>
       <c r="BY37" s="1">
-        <f t="shared" si="37"/>
-        <v>2685.6166393613717</v>
+        <f t="shared" si="41"/>
+        <v>2423.3047842370661</v>
       </c>
       <c r="BZ37" s="1">
-        <f t="shared" si="37"/>
-        <v>2712.4728057549855</v>
+        <f t="shared" si="41"/>
+        <v>2447.5378320794366</v>
       </c>
       <c r="CA37" s="1">
-        <f t="shared" si="37"/>
-        <v>2739.5975338125354</v>
+        <f t="shared" si="41"/>
+        <v>2472.0132104002309</v>
       </c>
       <c r="CB37" s="1">
-        <f t="shared" si="37"/>
-        <v>2766.9935091506609</v>
+        <f t="shared" si="41"/>
+        <v>2496.7333425042334</v>
       </c>
       <c r="CC37" s="1">
-        <f t="shared" si="37"/>
-        <v>2794.6634442421673</v>
+        <f t="shared" si="41"/>
+        <v>2521.7006759292758</v>
       </c>
       <c r="CD37" s="1">
-        <f t="shared" si="37"/>
-        <v>2822.6100786845891</v>
+        <f t="shared" si="41"/>
+        <v>2546.9176826885687</v>
       </c>
       <c r="CE37" s="1">
-        <f t="shared" si="37"/>
-        <v>2850.8361794714351</v>
+        <f t="shared" si="41"/>
+        <v>2572.3868595154545</v>
       </c>
       <c r="CF37" s="1">
-        <f t="shared" si="37"/>
-        <v>2879.3445412661495</v>
+        <f t="shared" si="41"/>
+        <v>2598.1107281106092</v>
       </c>
       <c r="CG37" s="1">
-        <f t="shared" si="37"/>
-        <v>2908.1379866788111</v>
+        <f t="shared" si="41"/>
+        <v>2624.0918353917154</v>
       </c>
       <c r="CH37" s="1">
-        <f t="shared" si="37"/>
-        <v>2937.2193665455993</v>
+        <f t="shared" si="41"/>
+        <v>2650.3327537456325</v>
       </c>
       <c r="CI37" s="1">
-        <f t="shared" si="37"/>
-        <v>2966.5915602110554</v>
+        <f t="shared" si="41"/>
+        <v>2676.8360812830888</v>
       </c>
       <c r="CJ37" s="1">
-        <f t="shared" si="37"/>
-        <v>2996.2574758131659</v>
+        <f t="shared" si="41"/>
+        <v>2703.6044420959197</v>
       </c>
       <c r="CK37" s="1">
-        <f t="shared" si="37"/>
-        <v>3026.2200505712976</v>
+        <f t="shared" si="41"/>
+        <v>2730.6404865168788</v>
       </c>
       <c r="CL37" s="1">
-        <f t="shared" si="37"/>
-        <v>3056.4822510770105</v>
+        <f t="shared" si="41"/>
+        <v>2757.9468913820474</v>
       </c>
       <c r="CM37" s="1">
-        <f t="shared" si="37"/>
-        <v>3087.0470735877807</v>
+        <f t="shared" si="41"/>
+        <v>2785.526360295868</v>
       </c>
       <c r="CN37" s="1">
-        <f t="shared" si="37"/>
-        <v>3117.9175443236586</v>
+        <f t="shared" si="41"/>
+        <v>2813.3816238988265</v>
       </c>
       <c r="CO37" s="1">
-        <f t="shared" si="37"/>
-        <v>3149.0967197668951</v>
+        <f t="shared" si="41"/>
+        <v>2841.5154401378149</v>
       </c>
       <c r="CP37" s="1">
-        <f t="shared" si="37"/>
-        <v>3180.587686964564</v>
+        <f t="shared" si="41"/>
+        <v>2869.930594539193</v>
       </c>
       <c r="CQ37" s="1">
-        <f t="shared" si="37"/>
-        <v>3212.3935638342095</v>
+        <f t="shared" si="41"/>
+        <v>2898.6299004845851</v>
       </c>
       <c r="CR37" s="1">
-        <f t="shared" si="37"/>
-        <v>3244.5174994725517</v>
+        <f t="shared" si="41"/>
+        <v>2927.616199489431</v>
       </c>
       <c r="CS37" s="1">
-        <f t="shared" si="37"/>
-        <v>3276.9626744672773</v>
+        <f t="shared" si="41"/>
+        <v>2956.8923614843252</v>
       </c>
       <c r="CT37" s="1">
-        <f t="shared" si="37"/>
-        <v>3309.73230121195</v>
+        <f t="shared" si="41"/>
+        <v>2986.4612850991684</v>
       </c>
       <c r="CU37" s="1">
-        <f t="shared" si="37"/>
-        <v>3342.8296242240694</v>
+        <f t="shared" si="41"/>
+        <v>3016.3258979501602</v>
       </c>
       <c r="CV37" s="1">
-        <f t="shared" si="37"/>
-        <v>3376.2579204663102</v>
+        <f t="shared" si="41"/>
+        <v>3046.4891569296619</v>
       </c>
       <c r="CW37" s="1">
-        <f t="shared" si="37"/>
-        <v>3410.0204996709735</v>
+        <f t="shared" si="41"/>
+        <v>3076.9540484989584</v>
       </c>
       <c r="CX37" s="1">
-        <f t="shared" ref="CX37:FI37" si="38">+CW37*(1+$AL$45)</f>
-        <v>3444.1207046676832</v>
+        <f t="shared" ref="CX37:FI37" si="42">+CW37*(1+$AL$45)</f>
+        <v>3107.723588983948</v>
       </c>
       <c r="CY37" s="1">
-        <f t="shared" si="38"/>
-        <v>3478.5619117143601</v>
+        <f t="shared" si="42"/>
+        <v>3138.8008248737874</v>
       </c>
       <c r="CZ37" s="1">
-        <f t="shared" si="38"/>
-        <v>3513.3475308315037</v>
+        <f t="shared" si="42"/>
+        <v>3170.1888331225255</v>
       </c>
       <c r="DA37" s="1">
-        <f t="shared" si="38"/>
-        <v>3548.4810061398189</v>
+        <f t="shared" si="42"/>
+        <v>3201.8907214537508</v>
       </c>
       <c r="DB37" s="1">
-        <f t="shared" si="38"/>
-        <v>3583.965816201217</v>
+        <f t="shared" si="42"/>
+        <v>3233.9096286682884</v>
       </c>
       <c r="DC37" s="1">
-        <f t="shared" si="38"/>
-        <v>3619.8054743632292</v>
+        <f t="shared" si="42"/>
+        <v>3266.2487249549713</v>
       </c>
       <c r="DD37" s="1">
-        <f t="shared" si="38"/>
-        <v>3656.0035291068616</v>
+        <f t="shared" si="42"/>
+        <v>3298.9112122045212</v>
       </c>
       <c r="DE37" s="1">
-        <f t="shared" si="38"/>
-        <v>3692.5635643979303</v>
+        <f t="shared" si="42"/>
+        <v>3331.9003243265665</v>
       </c>
       <c r="DF37" s="1">
-        <f t="shared" si="38"/>
-        <v>3729.4892000419095</v>
+        <f t="shared" si="42"/>
+        <v>3365.2193275698323</v>
       </c>
       <c r="DG37" s="1">
-        <f t="shared" si="38"/>
-        <v>3766.7840920423287</v>
+        <f t="shared" si="42"/>
+        <v>3398.8715208455305</v>
       </c>
       <c r="DH37" s="1">
-        <f t="shared" si="38"/>
-        <v>3804.4519329627519</v>
+        <f t="shared" si="42"/>
+        <v>3432.8602360539858</v>
       </c>
       <c r="DI37" s="1">
-        <f t="shared" si="38"/>
-        <v>3842.4964522923797</v>
+        <f t="shared" si="42"/>
+        <v>3467.1888384145254</v>
       </c>
       <c r="DJ37" s="1">
-        <f t="shared" si="38"/>
-        <v>3880.9214168153035</v>
+        <f t="shared" si="42"/>
+        <v>3501.8607267986708</v>
       </c>
       <c r="DK37" s="1">
-        <f t="shared" si="38"/>
-        <v>3919.7306309834566</v>
+        <f t="shared" si="42"/>
+        <v>3536.8793340666575</v>
       </c>
       <c r="DL37" s="1">
-        <f t="shared" si="38"/>
-        <v>3958.9279372932911</v>
+        <f t="shared" si="42"/>
+        <v>3572.2481274073243</v>
       </c>
       <c r="DM37" s="1">
-        <f t="shared" si="38"/>
-        <v>3998.5172166662242</v>
+        <f t="shared" si="42"/>
+        <v>3607.9706086813976</v>
       </c>
       <c r="DN37" s="1">
-        <f t="shared" si="38"/>
-        <v>4038.5023888328865</v>
+        <f t="shared" si="42"/>
+        <v>3644.0503147682116</v>
       </c>
       <c r="DO37" s="1">
-        <f t="shared" si="38"/>
-        <v>4078.8874127212152</v>
+        <f t="shared" si="42"/>
+        <v>3680.4908179158938</v>
       </c>
       <c r="DP37" s="1">
-        <f t="shared" si="38"/>
-        <v>4119.6762868484275</v>
+        <f t="shared" si="42"/>
+        <v>3717.2957260950529</v>
       </c>
       <c r="DQ37" s="1">
-        <f t="shared" si="38"/>
-        <v>4160.8730497169117</v>
+        <f t="shared" si="42"/>
+        <v>3754.4686833560036</v>
       </c>
       <c r="DR37" s="1">
-        <f t="shared" si="38"/>
-        <v>4202.4817802140806</v>
+        <f t="shared" si="42"/>
+        <v>3792.0133701895638</v>
       </c>
       <c r="DS37" s="1">
-        <f t="shared" si="38"/>
-        <v>4244.5065980162217</v>
+        <f t="shared" si="42"/>
+        <v>3829.9335038914596</v>
       </c>
       <c r="DT37" s="1">
-        <f t="shared" si="38"/>
-        <v>4286.951663996384</v>
+        <f t="shared" si="42"/>
+        <v>3868.2328389303743</v>
       </c>
       <c r="DU37" s="1">
-        <f t="shared" si="38"/>
-        <v>4329.8211806363479</v>
+        <f t="shared" si="42"/>
+        <v>3906.9151673196779</v>
       </c>
       <c r="DV37" s="1">
-        <f t="shared" si="38"/>
-        <v>4373.1193924427116</v>
+        <f t="shared" si="42"/>
+        <v>3945.9843189928747</v>
       </c>
       <c r="DW37" s="1">
-        <f t="shared" si="38"/>
-        <v>4416.8505863671389</v>
+        <f t="shared" si="42"/>
+        <v>3985.4441621828037</v>
       </c>
       <c r="DX37" s="1">
-        <f t="shared" si="38"/>
-        <v>4461.0190922308102</v>
+        <f t="shared" si="42"/>
+        <v>4025.2986038046315</v>
       </c>
       <c r="DY37" s="1">
-        <f t="shared" si="38"/>
-        <v>4505.6292831531182</v>
+        <f t="shared" si="42"/>
+        <v>4065.5515898426779</v>
       </c>
       <c r="DZ37" s="1">
-        <f t="shared" si="38"/>
-        <v>4550.6855759846494</v>
+        <f t="shared" si="42"/>
+        <v>4106.2071057411049</v>
       </c>
       <c r="EA37" s="1">
-        <f t="shared" si="38"/>
-        <v>4596.1924317444964</v>
+        <f t="shared" si="42"/>
+        <v>4147.2691767985161</v>
       </c>
       <c r="EB37" s="1">
-        <f t="shared" si="38"/>
-        <v>4642.1543560619411</v>
+        <f t="shared" si="42"/>
+        <v>4188.7418685665016</v>
       </c>
       <c r="EC37" s="1">
-        <f t="shared" si="38"/>
-        <v>4688.5758996225604</v>
+        <f t="shared" si="42"/>
+        <v>4230.6292872521663</v>
       </c>
       <c r="ED37" s="1">
-        <f t="shared" si="38"/>
-        <v>4735.4616586187858</v>
+        <f t="shared" si="42"/>
+        <v>4272.9355801246884</v>
       </c>
       <c r="EE37" s="1">
-        <f t="shared" si="38"/>
-        <v>4782.8162752049739</v>
+        <f t="shared" si="42"/>
+        <v>4315.6649359259354</v>
       </c>
       <c r="EF37" s="1">
-        <f t="shared" si="38"/>
-        <v>4830.6444379570239</v>
+        <f t="shared" si="42"/>
+        <v>4358.8215852851945</v>
       </c>
       <c r="EG37" s="1">
-        <f t="shared" si="38"/>
-        <v>4878.9508823365941</v>
+        <f t="shared" si="42"/>
+        <v>4402.4098011380465</v>
       </c>
       <c r="EH37" s="1">
-        <f t="shared" si="38"/>
-        <v>4927.7403911599604</v>
+        <f t="shared" si="42"/>
+        <v>4446.4338991494269</v>
       </c>
       <c r="EI37" s="1">
-        <f t="shared" si="38"/>
-        <v>4977.0177950715597</v>
+        <f t="shared" si="42"/>
+        <v>4490.8982381409214</v>
       </c>
       <c r="EJ37" s="1">
-        <f t="shared" si="38"/>
-        <v>5026.7879730222758</v>
+        <f t="shared" si="42"/>
+        <v>4535.8072205223307</v>
       </c>
       <c r="EK37" s="1">
-        <f t="shared" si="38"/>
-        <v>5077.0558527524981</v>
+        <f t="shared" si="42"/>
+        <v>4581.1652927275536</v>
       </c>
       <c r="EL37" s="1">
-        <f t="shared" si="38"/>
-        <v>5127.8264112800234</v>
+        <f t="shared" si="42"/>
+        <v>4626.9769456548293</v>
       </c>
       <c r="EM37" s="1">
-        <f t="shared" si="38"/>
-        <v>5179.104675392824</v>
+        <f t="shared" si="42"/>
+        <v>4673.2467151113779</v>
       </c>
       <c r="EN37" s="1">
-        <f t="shared" si="38"/>
-        <v>5230.8957221467526</v>
+        <f t="shared" si="42"/>
+        <v>4719.979182262492</v>
       </c>
       <c r="EO37" s="1">
-        <f t="shared" si="38"/>
-        <v>5283.2046793682202</v>
+        <f t="shared" si="42"/>
+        <v>4767.1789740851173</v>
       </c>
       <c r="EP37" s="1">
-        <f t="shared" si="38"/>
-        <v>5336.0367261619022</v>
+        <f t="shared" si="42"/>
+        <v>4814.8507638259689</v>
       </c>
       <c r="EQ37" s="1">
-        <f t="shared" si="38"/>
-        <v>5389.3970934235213</v>
+        <f t="shared" si="42"/>
+        <v>4862.9992714642285</v>
       </c>
       <c r="ER37" s="1">
-        <f t="shared" si="38"/>
-        <v>5443.2910643577561</v>
+        <f t="shared" si="42"/>
+        <v>4911.6292641788705</v>
       </c>
       <c r="ES37" s="1">
-        <f t="shared" si="38"/>
-        <v>5497.7239750013341</v>
+        <f t="shared" si="42"/>
+        <v>4960.7455568206597</v>
       </c>
       <c r="ET37" s="1">
-        <f t="shared" si="38"/>
-        <v>5552.7012147513478</v>
+        <f t="shared" si="42"/>
+        <v>5010.3530123888659</v>
       </c>
       <c r="EU37" s="1">
-        <f t="shared" si="38"/>
-        <v>5608.2282268988611</v>
+        <f t="shared" si="42"/>
+        <v>5060.4565425127548</v>
       </c>
       <c r="EV37" s="1">
-        <f t="shared" si="38"/>
-        <v>5664.3105091678499</v>
+        <f t="shared" si="42"/>
+        <v>5111.0611079378823</v>
       </c>
       <c r="EW37" s="1">
-        <f t="shared" si="38"/>
-        <v>5720.9536142595289</v>
+        <f t="shared" si="42"/>
+        <v>5162.1717190172612</v>
       </c>
       <c r="EX37" s="1">
-        <f t="shared" si="38"/>
-        <v>5778.1631504021243</v>
+        <f t="shared" si="42"/>
+        <v>5213.7934362074338</v>
       </c>
       <c r="EY37" s="1">
-        <f t="shared" si="38"/>
-        <v>5835.9447819061452</v>
+        <f t="shared" si="42"/>
+        <v>5265.9313705695085</v>
       </c>
       <c r="EZ37" s="1">
-        <f t="shared" si="38"/>
-        <v>5894.3042297252068</v>
+        <f t="shared" si="42"/>
+        <v>5318.5906842752038</v>
       </c>
       <c r="FA37" s="1">
-        <f t="shared" si="38"/>
-        <v>5953.2472720224587</v>
+        <f t="shared" si="42"/>
+        <v>5371.7765911179558</v>
       </c>
       <c r="FB37" s="1">
-        <f t="shared" si="38"/>
-        <v>6012.7797447426838</v>
+        <f t="shared" si="42"/>
+        <v>5425.4943570291352</v>
       </c>
       <c r="FC37" s="1">
-        <f t="shared" si="38"/>
-        <v>6072.9075421901107</v>
+        <f t="shared" si="42"/>
+        <v>5479.7493005994265</v>
       </c>
       <c r="FD37" s="1">
-        <f t="shared" si="38"/>
-        <v>6133.6366176120118</v>
+        <f t="shared" si="42"/>
+        <v>5534.546793605421</v>
       </c>
       <c r="FE37" s="1">
-        <f t="shared" si="38"/>
-        <v>6194.9729837881323</v>
+        <f t="shared" si="42"/>
+        <v>5589.8922615414749</v>
       </c>
       <c r="FF37" s="1">
-        <f t="shared" si="38"/>
-        <v>6256.9227136260133</v>
+        <f t="shared" si="42"/>
+        <v>5645.7911841568894</v>
       </c>
       <c r="FG37" s="1">
-        <f t="shared" si="38"/>
-        <v>6319.4919407622738</v>
+        <f t="shared" si="42"/>
+        <v>5702.249095998458</v>
       </c>
       <c r="FH37" s="1">
-        <f t="shared" si="38"/>
-        <v>6382.6868601698961</v>
+        <f t="shared" si="42"/>
+        <v>5759.2715869584426</v>
       </c>
       <c r="FI37" s="1">
-        <f t="shared" si="38"/>
-        <v>6446.5137287715952</v>
+        <f t="shared" si="42"/>
+        <v>5816.8643028280267</v>
       </c>
       <c r="FJ37" s="1">
-        <f t="shared" ref="FJ37:HI37" si="39">+FI37*(1+$AL$45)</f>
-        <v>6510.9788660593113</v>
+        <f t="shared" ref="FJ37:HI37" si="43">+FI37*(1+$AL$45)</f>
+        <v>5875.0329458563074</v>
       </c>
       <c r="FK37" s="1">
-        <f t="shared" si="39"/>
-        <v>6576.0886547199043</v>
+        <f t="shared" si="43"/>
+        <v>5933.7832753148705</v>
       </c>
       <c r="FL37" s="1">
-        <f t="shared" si="39"/>
-        <v>6641.8495412671036</v>
+        <f t="shared" si="43"/>
+        <v>5993.1211080680196</v>
       </c>
       <c r="FM37" s="1">
-        <f t="shared" si="39"/>
-        <v>6708.2680366797749</v>
+        <f t="shared" si="43"/>
+        <v>6053.0523191487</v>
       </c>
       <c r="FN37" s="1">
-        <f t="shared" si="39"/>
-        <v>6775.3507170465728</v>
+        <f t="shared" si="43"/>
+        <v>6113.5828423401872</v>
       </c>
       <c r="FO37" s="1">
-        <f t="shared" si="39"/>
-        <v>6843.1042242170388</v>
+        <f t="shared" si="43"/>
+        <v>6174.7186707635892</v>
       </c>
       <c r="FP37" s="1">
-        <f t="shared" si="39"/>
-        <v>6911.5352664592092</v>
+        <f t="shared" si="43"/>
+        <v>6236.4658574712248</v>
       </c>
       <c r="FQ37" s="1">
-        <f t="shared" si="39"/>
-        <v>6980.6506191238013</v>
+        <f t="shared" si="43"/>
+        <v>6298.8305160459367</v>
       </c>
       <c r="FR37" s="1">
-        <f t="shared" si="39"/>
-        <v>7050.4571253150398</v>
+        <f t="shared" si="43"/>
+        <v>6361.818821206396</v>
       </c>
       <c r="FS37" s="1">
-        <f t="shared" si="39"/>
-        <v>7120.9616965681898</v>
+        <f t="shared" si="43"/>
+        <v>6425.4370094184596</v>
       </c>
       <c r="FT37" s="1">
-        <f t="shared" si="39"/>
-        <v>7192.1713135338714</v>
+        <f t="shared" si="43"/>
+        <v>6489.6913795126447</v>
       </c>
       <c r="FU37" s="1">
-        <f t="shared" si="39"/>
-        <v>7264.0930266692103</v>
+        <f t="shared" si="43"/>
+        <v>6554.588293307771</v>
       </c>
       <c r="FV37" s="1">
-        <f t="shared" si="39"/>
-        <v>7336.7339569359028</v>
+        <f t="shared" si="43"/>
+        <v>6620.1341762408483</v>
       </c>
       <c r="FW37" s="1">
-        <f t="shared" si="39"/>
-        <v>7410.1012965052623</v>
+        <f t="shared" si="43"/>
+        <v>6686.3355180032568</v>
       </c>
       <c r="FX37" s="1">
-        <f t="shared" si="39"/>
-        <v>7484.2023094703154</v>
+        <f t="shared" si="43"/>
+        <v>6753.1988731832898</v>
       </c>
       <c r="FY37" s="1">
-        <f t="shared" si="39"/>
-        <v>7559.0443325650185</v>
+        <f t="shared" si="43"/>
+        <v>6820.7308619151227</v>
       </c>
       <c r="FZ37" s="1">
-        <f t="shared" si="39"/>
-        <v>7634.6347758906686</v>
+        <f t="shared" si="43"/>
+        <v>6888.9381705342739</v>
       </c>
       <c r="GA37" s="1">
-        <f t="shared" si="39"/>
-        <v>7710.9811236495752</v>
+        <f t="shared" si="43"/>
+        <v>6957.827552239617</v>
       </c>
       <c r="GB37" s="1">
-        <f t="shared" si="39"/>
-        <v>7788.0909348860714</v>
+        <f t="shared" si="43"/>
+        <v>7027.4058277620134</v>
       </c>
       <c r="GC37" s="1">
-        <f t="shared" si="39"/>
-        <v>7865.9718442349322</v>
+        <f t="shared" si="43"/>
+        <v>7097.6798860396339</v>
       </c>
       <c r="GD37" s="1">
-        <f t="shared" si="39"/>
-        <v>7944.6315626772812</v>
+        <f t="shared" si="43"/>
+        <v>7168.6566849000301</v>
       </c>
       <c r="GE37" s="1">
-        <f t="shared" si="39"/>
-        <v>8024.0778783040541</v>
+        <f t="shared" si="43"/>
+        <v>7240.3432517490301</v>
       </c>
       <c r="GF37" s="1">
-        <f t="shared" si="39"/>
-        <v>8104.3186570870948</v>
+        <f t="shared" si="43"/>
+        <v>7312.7466842665208</v>
       </c>
       <c r="GG37" s="1">
-        <f t="shared" si="39"/>
-        <v>8185.3618436579654</v>
+        <f t="shared" si="43"/>
+        <v>7385.8741511091857</v>
       </c>
       <c r="GH37" s="1">
-        <f t="shared" si="39"/>
-        <v>8267.2154620945457</v>
+        <f t="shared" si="43"/>
+        <v>7459.7328926202781</v>
       </c>
       <c r="GI37" s="1">
-        <f t="shared" si="39"/>
-        <v>8349.8876167154904</v>
+        <f t="shared" si="43"/>
+        <v>7534.330221546481</v>
       </c>
       <c r="GJ37" s="1">
-        <f t="shared" si="39"/>
-        <v>8433.3864928826461</v>
+        <f t="shared" si="43"/>
+        <v>7609.6735237619459</v>
       </c>
       <c r="GK37" s="1">
-        <f t="shared" si="39"/>
-        <v>8517.7203578114731</v>
+        <f t="shared" si="43"/>
+        <v>7685.7702589995652</v>
       </c>
       <c r="GL37" s="1">
-        <f t="shared" si="39"/>
-        <v>8602.8975613895873</v>
+        <f t="shared" si="43"/>
+        <v>7762.627961589561</v>
       </c>
       <c r="GM37" s="1">
-        <f t="shared" si="39"/>
-        <v>8688.9265370034827</v>
+        <f t="shared" si="43"/>
+        <v>7840.2542412054563</v>
       </c>
       <c r="GN37" s="1">
-        <f t="shared" si="39"/>
-        <v>8775.8158023735177</v>
+        <f t="shared" si="43"/>
+        <v>7918.6567836175109</v>
       </c>
       <c r="GO37" s="1">
-        <f t="shared" si="39"/>
-        <v>8863.5739603972524</v>
+        <f t="shared" si="43"/>
+        <v>7997.8433514536864</v>
       </c>
       <c r="GP37" s="1">
-        <f t="shared" si="39"/>
-        <v>8952.2097000012254</v>
+        <f t="shared" si="43"/>
+        <v>8077.8217849682233</v>
       </c>
       <c r="GQ37" s="1">
-        <f t="shared" si="39"/>
-        <v>9041.7317970012373</v>
+        <f t="shared" si="43"/>
+        <v>8158.600002817906</v>
       </c>
       <c r="GR37" s="1">
-        <f t="shared" si="39"/>
-        <v>9132.1491149712492</v>
+        <f t="shared" si="43"/>
+        <v>8240.1860028460851</v>
       </c>
       <c r="GS37" s="1">
-        <f t="shared" si="39"/>
-        <v>9223.4706061209617</v>
+        <f t="shared" si="43"/>
+        <v>8322.5878628745468</v>
       </c>
       <c r="GT37" s="1">
-        <f t="shared" si="39"/>
-        <v>9315.7053121821718</v>
+        <f t="shared" si="43"/>
+        <v>8405.8137415032925</v>
       </c>
       <c r="GU37" s="1">
-        <f t="shared" si="39"/>
-        <v>9408.862365303994</v>
+        <f t="shared" si="43"/>
+        <v>8489.8718789183258</v>
       </c>
       <c r="GV37" s="1">
-        <f t="shared" si="39"/>
-        <v>9502.9509889570345</v>
+        <f t="shared" si="43"/>
+        <v>8574.7705977075093</v>
       </c>
       <c r="GW37" s="1">
-        <f t="shared" si="39"/>
-        <v>9597.9804988466058</v>
+        <f t="shared" si="43"/>
+        <v>8660.5183036845847</v>
       </c>
       <c r="GX37" s="1">
-        <f t="shared" si="39"/>
-        <v>9693.9603038350724</v>
+        <f t="shared" si="43"/>
+        <v>8747.1234867214298</v>
       </c>
       <c r="GY37" s="1">
-        <f t="shared" si="39"/>
-        <v>9790.8999068734229</v>
+        <f t="shared" si="43"/>
+        <v>8834.5947215886445</v>
       </c>
       <c r="GZ37" s="1">
-        <f t="shared" si="39"/>
-        <v>9888.8089059421563</v>
+        <f t="shared" si="43"/>
+        <v>8922.940668804531</v>
       </c>
       <c r="HA37" s="1">
-        <f t="shared" si="39"/>
-        <v>9987.6969950015773</v>
+        <f t="shared" si="43"/>
+        <v>9012.1700754925769</v>
       </c>
       <c r="HB37" s="1">
-        <f t="shared" si="39"/>
-        <v>10087.573964951593</v>
+        <f t="shared" si="43"/>
+        <v>9102.2917762475026</v>
       </c>
       <c r="HC37" s="1">
-        <f t="shared" si="39"/>
-        <v>10188.449704601109</v>
+        <f t="shared" si="43"/>
+        <v>9193.3146940099778</v>
       </c>
       <c r="HD37" s="1">
-        <f t="shared" si="39"/>
-        <v>10290.33420164712</v>
+        <f t="shared" si="43"/>
+        <v>9285.2478409500782</v>
       </c>
       <c r="HE37" s="1">
-        <f t="shared" si="39"/>
-        <v>10393.23754366359</v>
+        <f t="shared" si="43"/>
+        <v>9378.1003193595789</v>
       </c>
       <c r="HF37" s="1">
-        <f t="shared" si="39"/>
-        <v>10497.169919100226</v>
+        <f t="shared" si="43"/>
+        <v>9471.881322553174</v>
       </c>
       <c r="HG37" s="1">
-        <f t="shared" si="39"/>
-        <v>10602.141618291229</v>
+        <f t="shared" si="43"/>
+        <v>9566.6001357787063</v>
       </c>
       <c r="HH37" s="1">
-        <f t="shared" si="39"/>
-        <v>10708.163034474141</v>
+        <f t="shared" si="43"/>
+        <v>9662.2661371364939</v>
       </c>
       <c r="HI37" s="1">
-        <f t="shared" si="39"/>
-        <v>10815.244664818882</v>
+        <f t="shared" si="43"/>
+        <v>9758.8887985078582</v>
       </c>
       <c r="HJ37" s="1">
-        <f t="shared" ref="HJ37:HN37" si="40">+HI37*(1+$AL$45)</f>
-        <v>10923.397111467071</v>
+        <f t="shared" ref="HJ37:HN37" si="44">+HI37*(1+$AL$45)</f>
+        <v>9856.4776864929372</v>
       </c>
       <c r="HK37" s="1">
-        <f t="shared" si="40"/>
-        <v>11032.631082581742</v>
+        <f t="shared" si="44"/>
+        <v>9955.0424633578659</v>
       </c>
       <c r="HL37" s="1">
-        <f t="shared" si="40"/>
-        <v>11142.95739340756</v>
+        <f t="shared" si="44"/>
+        <v>10054.592887991445</v>
       </c>
       <c r="HM37" s="1">
-        <f t="shared" si="40"/>
-        <v>11254.386967341636</v>
+        <f t="shared" si="44"/>
+        <v>10155.138816871358</v>
       </c>
       <c r="HN37" s="1">
-        <f t="shared" si="40"/>
-        <v>11366.930837015052</v>
+        <f t="shared" si="44"/>
+        <v>10256.690205040071</v>
       </c>
       <c r="HO37" s="1">
-        <f t="shared" ref="HO37:HQ37" si="41">+HN37*(1+$AL$45)</f>
-        <v>11480.600145385202</v>
+        <f t="shared" ref="HO37:HQ37" si="45">+HN37*(1+$AL$45)</f>
+        <v>10359.257107090472</v>
       </c>
       <c r="HP37" s="1">
-        <f t="shared" si="41"/>
-        <v>11595.406146839054</v>
+        <f t="shared" si="45"/>
+        <v>10462.849678161378</v>
       </c>
       <c r="HQ37" s="1">
-        <f t="shared" si="41"/>
-        <v>11711.360208307444</v>
+        <f t="shared" si="45"/>
+        <v>10567.478174942991</v>
       </c>
     </row>
     <row r="38" spans="2:225">
@@ -5879,8 +6525,8 @@
         <v>120.4</v>
       </c>
       <c r="N38" s="1">
-        <f>+M38</f>
-        <v>120.4</v>
+        <f>+N37/N39</f>
+        <v>120.45031792794833</v>
       </c>
       <c r="V38" s="1">
         <v>122.7</v>
@@ -5895,153 +6541,152 @@
         <v>122.9</v>
       </c>
       <c r="Z38" s="1">
-        <f>+Z37/Z39</f>
-        <v>120.74497468144659</v>
+        <v>120.8</v>
       </c>
       <c r="AA38" s="1">
         <f>+Z38</f>
-        <v>120.74497468144659</v>
+        <v>120.8</v>
       </c>
       <c r="AB38" s="1">
-        <f t="shared" ref="AB38:AH38" si="42">+AA38</f>
-        <v>120.74497468144659</v>
+        <f t="shared" ref="AB38:AH38" si="46">+AA38</f>
+        <v>120.8</v>
       </c>
       <c r="AC38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AD38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AE38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AH38" s="1">
-        <f t="shared" si="42"/>
-        <v>120.74497468144659</v>
+        <f t="shared" si="46"/>
+        <v>120.8</v>
       </c>
       <c r="AI38" s="1">
-        <f t="shared" ref="AI38" si="43">+AH38</f>
-        <v>120.74497468144659</v>
-      </c>
-    </row>
-    <row r="39" spans="2:225" s="6" customFormat="1">
-      <c r="B39" s="6" t="s">
+        <f t="shared" ref="AI38" si="47">+AH38</f>
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:225" s="13" customFormat="1">
+      <c r="B39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="13">
         <f>+C37/C38</f>
         <v>1.7593014426727402</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="13">
         <f>+D37/D38</f>
         <v>1.4819923371647521</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="13">
         <f>+E37/E38</f>
         <v>1.9040561622464864</v>
       </c>
-      <c r="F39" s="6">
-        <f t="shared" ref="F39" si="44">+X39-SUM(C39:E39)</f>
+      <c r="F39" s="13">
+        <f t="shared" ref="F39" si="48">+X39-SUM(C39:E39)</f>
         <v>2.2158903679935467</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="13">
         <f>+G37/G38</f>
         <v>1.5230024213075108</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="13">
         <f>+H37/H38</f>
         <v>1.4516653127538557</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="13">
         <f>+I37/I38</f>
         <v>2.3518367346938795</v>
       </c>
-      <c r="J39" s="6">
-        <f t="shared" ref="J39" si="45">+Y39-SUM(G39:I39)</f>
+      <c r="J39" s="13">
+        <f t="shared" ref="J39" si="49">+Y39-SUM(G39:I39)</f>
         <v>2.5766688428802205</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="13">
         <f>+K37/K38</f>
         <v>1.6221311475409799</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="13">
         <f>+L37/L38</f>
         <v>1.8195364238410598</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="13">
         <f>+M37/M38</f>
         <v>2.6063122923588056</v>
       </c>
-      <c r="N39" s="6">
-        <f>+N37/N38</f>
-        <v>3.58526160101417</v>
-      </c>
-      <c r="V39" s="6">
+      <c r="N39" s="13">
+        <f t="shared" ref="N39" si="50">+Z39-SUM(K39:M39)</f>
+        <v>2.5852982819545058</v>
+      </c>
+      <c r="V39" s="13">
         <f>+V37/V38</f>
         <v>1.8614506927465424</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="13">
         <f>+W37/W38</f>
         <v>4.8247344461305079</v>
       </c>
-      <c r="X39" s="6">
+      <c r="X39" s="13">
         <f>+X37/X38</f>
         <v>7.361240310077525</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="Y39" s="13">
         <f>+Y37/Y38</f>
         <v>7.9031733116354665</v>
       </c>
-      <c r="Z39" s="1">
-        <f t="shared" si="19"/>
-        <v>9.6332414647550166</v>
-      </c>
-      <c r="AA39" s="6">
+      <c r="Z39" s="13">
+        <f>+Z37/Z38</f>
+        <v>8.6332781456953516</v>
+      </c>
+      <c r="AA39" s="13">
         <f>+AA37/AA38</f>
-        <v>9.8824027722395105</v>
-      </c>
-      <c r="AB39" s="6">
-        <f t="shared" ref="AB39:AI39" si="46">+AB37/AB38</f>
-        <v>10.440987288566104</v>
-      </c>
-      <c r="AC39" s="6">
-        <f t="shared" si="46"/>
-        <v>11.009753929835115</v>
-      </c>
-      <c r="AD39" s="6">
-        <f t="shared" si="46"/>
-        <v>11.588850480093731</v>
-      </c>
-      <c r="AE39" s="6">
-        <f t="shared" si="46"/>
-        <v>12.178426660857625</v>
-      </c>
-      <c r="AF39" s="6">
-        <f t="shared" si="46"/>
-        <v>12.778634155081885</v>
-      </c>
-      <c r="AG39" s="6">
-        <f t="shared" si="46"/>
-        <v>13.389626631417617</v>
-      </c>
-      <c r="AH39" s="6">
-        <f t="shared" si="46"/>
-        <v>14.011559768757692</v>
-      </c>
-      <c r="AI39" s="6">
-        <f t="shared" si="46"/>
-        <v>14.644591281074478</v>
+        <v>8.8639412858964199</v>
+      </c>
+      <c r="AB39" s="13">
+        <f t="shared" ref="AB39:AI39" si="51">+AB37/AB38</f>
+        <v>9.3734526226763233</v>
+      </c>
+      <c r="AC39" s="13">
+        <f t="shared" si="51"/>
+        <v>9.8922664675599226</v>
+      </c>
+      <c r="AD39" s="13">
+        <f t="shared" si="51"/>
+        <v>10.420517919575637</v>
+      </c>
+      <c r="AE39" s="13">
+        <f t="shared" si="51"/>
+        <v>10.958343849481585</v>
+      </c>
+      <c r="AF39" s="13">
+        <f t="shared" si="51"/>
+        <v>11.505882921690386</v>
+      </c>
+      <c r="AG39" s="13">
+        <f t="shared" si="51"/>
+        <v>12.063275616455092</v>
+      </c>
+      <c r="AH39" s="13">
+        <f t="shared" si="51"/>
+        <v>12.630664252319631</v>
+      </c>
+      <c r="AI39" s="13">
+        <f t="shared" si="51"/>
+        <v>13.208193008836487</v>
       </c>
     </row>
     <row r="42" spans="2:225" s="3" customFormat="1">
@@ -6049,15 +6694,15 @@
         <v>29</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H42:J42" si="47">+H26/D26-1</f>
+        <f t="shared" ref="H42:J42" si="52">+H26/D26-1</f>
         <v>9.4313880820350082E-2</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>0.13773530973089976</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>6.3813438856659799E-2</v>
       </c>
       <c r="K42" s="3">
@@ -6074,7 +6719,7 @@
       </c>
       <c r="N42" s="3">
         <f>+N26/J26-1</f>
-        <v>7.3017241379310205E-2</v>
+        <v>6.8002889129649358E-2</v>
       </c>
       <c r="W42" s="3">
         <f>+W26/V26-1</f>
@@ -6090,43 +6735,43 @@
       </c>
       <c r="Z42" s="3">
         <f>+Z26/Y26-1</f>
-        <v>8.7347655502518329E-2</v>
+        <v>8.6023760941284166E-2</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" ref="AA42:AI42" si="48">+AA26/Z26-1</f>
-        <v>2.7240298867196699E-2</v>
+        <f t="shared" ref="AA42:AI42" si="53">+AA26/Z26-1</f>
+        <v>2.8252092565238751E-2</v>
       </c>
       <c r="AB42" s="3">
-        <f t="shared" si="48"/>
-        <v>5.6447459186019788E-2</v>
+        <f t="shared" si="53"/>
+        <v>5.7395588925387209E-2</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" si="48"/>
-        <v>5.4405363816223407E-2</v>
+        <f t="shared" si="53"/>
+        <v>5.5271178843568025E-2</v>
       </c>
       <c r="AD42" s="3">
-        <f t="shared" si="48"/>
-        <v>5.2535270583280669E-2</v>
+        <f t="shared" si="53"/>
+        <v>5.3329043329043202E-2</v>
       </c>
       <c r="AE42" s="3">
-        <f t="shared" si="48"/>
-        <v>5.0816326530612299E-2</v>
+        <f t="shared" si="53"/>
+        <v>5.1546688605512259E-2</v>
       </c>
       <c r="AF42" s="3">
-        <f t="shared" si="48"/>
-        <v>4.9230918624975528E-2</v>
+        <f t="shared" si="53"/>
+        <v>4.9905175819834113E-2</v>
       </c>
       <c r="AG42" s="3">
-        <f t="shared" si="48"/>
-        <v>4.7764068050102804E-2</v>
+        <f t="shared" si="53"/>
+        <v>4.8388445458000806E-2</v>
       </c>
       <c r="AH42" s="3">
-        <f t="shared" si="48"/>
-        <v>4.6402955487475195E-2</v>
+        <f t="shared" si="53"/>
+        <v>4.6982790186744783E-2</v>
       </c>
       <c r="AI42" s="3">
-        <f t="shared" si="48"/>
-        <v>4.5136545486171631E-2</v>
+        <f t="shared" si="53"/>
+        <v>4.5676439420699433E-2</v>
       </c>
     </row>
     <row r="43" spans="2:225" s="3" customFormat="1">
@@ -6134,75 +6779,78 @@
         <v>95</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:N43" si="49">+D26/C26-1</f>
+        <f t="shared" ref="D43:M43" si="54">+D26/C26-1</f>
         <v>-1.4657415437987709E-2</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>7.7766041721679446E-2</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>6.288537710808928E-2</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-6.024050097967637E-2</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>1.651608683209993E-2</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0.1205308666800724</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-6.1732826071352331E-3</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-1.3867822318526568E-2</v>
       </c>
       <c r="L43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>-1.2085255987693833E-3</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>9.0749092509074814E-2</v>
       </c>
       <c r="N43" s="3">
         <f>+N26/M26-1</f>
-        <v>-1.2152946822273636E-3</v>
-      </c>
-      <c r="X43" s="13"/>
-    </row>
-    <row r="45" spans="2:225" s="7" customFormat="1">
-      <c r="B45" s="7" t="s">
+        <v>-5.8827484200622004E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:225" s="6" customFormat="1">
+      <c r="B45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <f>+J46-J59-J65</f>
         <v>-517.09999999999991</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <f>+K46-K59-K65</f>
         <v>-1380.3999999999999</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f>+L46-L59-L65</f>
         <v>-1522.7</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <f>+M46-M59-M65</f>
         <v>-1287.5999999999999</v>
       </c>
-      <c r="AK45" s="7" t="s">
+      <c r="N45" s="6">
+        <f>+N46-N59-N65</f>
+        <v>-1262.4000000000001</v>
+      </c>
+      <c r="AK45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AL45" s="11">
+      <c r="AL45" s="10">
         <v>0.01</v>
       </c>
     </row>
@@ -6222,10 +6870,13 @@
       <c r="M46" s="1">
         <v>243.9</v>
       </c>
+      <c r="N46" s="1">
+        <v>194.8</v>
+      </c>
       <c r="AK46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AL46" s="10">
+      <c r="AL46" s="9">
         <v>0.08</v>
       </c>
     </row>
@@ -6245,12 +6896,15 @@
       <c r="M47" s="1">
         <v>72.2</v>
       </c>
+      <c r="N47" s="1">
+        <v>79.099999999999994</v>
+      </c>
       <c r="AK47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AL47" s="1">
         <f>NPV(AL46,Z37:HQ37)</f>
-        <v>21213.717769879553</v>
+        <v>19115.790095537297</v>
       </c>
     </row>
     <row r="48" spans="2:225">
@@ -6269,6 +6923,9 @@
       <c r="M48" s="1">
         <v>298.2</v>
       </c>
+      <c r="N48" s="1">
+        <v>290.5</v>
+      </c>
       <c r="AK48" s="1" t="s">
         <v>49</v>
       </c>
@@ -6293,12 +6950,15 @@
       <c r="M49" s="1">
         <v>122.6</v>
       </c>
+      <c r="N49" s="1">
+        <v>121.7</v>
+      </c>
       <c r="AK49" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AL49" s="1">
         <f>+SUM(AL47:AL48)</f>
-        <v>19926.117769879555</v>
+        <v>17828.190095537298</v>
       </c>
     </row>
     <row r="50" spans="2:38">
@@ -6317,12 +6977,15 @@
       <c r="M50" s="1">
         <v>139.5</v>
       </c>
+      <c r="N50" s="1">
+        <v>136.69999999999999</v>
+      </c>
       <c r="AK50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL50" s="1">
-        <f>+main!G4</f>
-        <v>119.358947</v>
+        <f>+main!I12</f>
+        <v>118.86295</v>
       </c>
     </row>
     <row r="51" spans="2:38">
@@ -6341,12 +7004,15 @@
       <c r="M51" s="1">
         <v>4101.8999999999996</v>
       </c>
+      <c r="N51" s="1">
+        <v>4184.3</v>
+      </c>
       <c r="AK51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AL51" s="1">
         <f>+AL49/AL50</f>
-        <v>166.94280798137029</v>
+        <v>149.98946345801866</v>
       </c>
     </row>
     <row r="52" spans="2:38">
@@ -6365,12 +7031,15 @@
       <c r="M52" s="1">
         <v>3494.3</v>
       </c>
+      <c r="N52" s="1">
+        <v>3429.3</v>
+      </c>
       <c r="AK52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AL52" s="1">
-        <f>+main!G3</f>
-        <v>147.6</v>
+        <f>+main!I11</f>
+        <v>143.36000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:38">
@@ -6389,12 +7058,15 @@
       <c r="M53" s="1">
         <v>1397.8</v>
       </c>
-      <c r="AK53" s="7" t="s">
+      <c r="N53" s="1">
+        <v>1391</v>
+      </c>
+      <c r="AK53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AL53" s="9">
+      <c r="AL53" s="8">
         <f>+AL51/AL52-1</f>
-        <v>0.13104883456212946</v>
+        <v>4.6243467201581012E-2</v>
       </c>
     </row>
     <row r="54" spans="2:38">
@@ -6413,6 +7085,9 @@
       <c r="M54" s="1">
         <v>1148</v>
       </c>
+      <c r="N54" s="1">
+        <v>1148</v>
+      </c>
     </row>
     <row r="55" spans="2:38">
       <c r="B55" s="1" t="s">
@@ -6430,26 +7105,49 @@
       <c r="M55" s="1">
         <v>339.8</v>
       </c>
-    </row>
-    <row r="56" spans="2:38" s="7" customFormat="1">
-      <c r="B56" s="7" t="s">
+      <c r="N55" s="1">
+        <v>347.6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:38" s="6" customFormat="1">
+      <c r="B56" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <f>+SUM(J46:J55)</f>
         <v>10241.5</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <f>+SUM(K46:K55)</f>
         <v>11269.2</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <f>+SUM(L46:L55)</f>
         <v>11322.099999999999</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <f>+SUM(M46:M55)</f>
         <v>11358.199999999997</v>
+      </c>
+      <c r="N56" s="6">
+        <f>+SUM(N46:N55)</f>
+        <v>11323.000000000002</v>
+      </c>
+      <c r="AK56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL56" s="6">
+        <f>+main!I16</f>
+        <v>18302.592512000003</v>
+      </c>
+    </row>
+    <row r="57" spans="2:38">
+      <c r="AK57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL57" s="25">
+        <f>+AL56/AA37</f>
+        <v>17.093020196139086</v>
       </c>
     </row>
     <row r="58" spans="2:38">
@@ -6468,6 +7166,16 @@
       <c r="M58" s="1">
         <v>406</v>
       </c>
+      <c r="N58" s="1">
+        <v>399.5</v>
+      </c>
+      <c r="AK58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL58" s="25">
+        <f>+AL56/AB37</f>
+        <v>16.163897500338436</v>
+      </c>
     </row>
     <row r="59" spans="2:38">
       <c r="B59" s="1" t="s">
@@ -6485,6 +7193,9 @@
       <c r="M59" s="1">
         <v>158.69999999999999</v>
       </c>
+      <c r="N59" s="1">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="60" spans="2:38">
       <c r="B60" s="1" t="s">
@@ -6502,6 +7213,9 @@
       <c r="M60" s="1">
         <v>195.6</v>
       </c>
+      <c r="N60" s="1">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="61" spans="2:38">
       <c r="B61" s="1" t="s">
@@ -6519,6 +7233,9 @@
       <c r="M61" s="1">
         <v>8.5</v>
       </c>
+      <c r="N61" s="1">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="62" spans="2:38">
       <c r="B62" s="1" t="s">
@@ -6536,6 +7253,9 @@
       <c r="M62" s="1">
         <v>69</v>
       </c>
+      <c r="N62" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="63" spans="2:38">
       <c r="B63" s="1" t="s">
@@ -6553,6 +7273,9 @@
       <c r="M63" s="1">
         <v>626</v>
       </c>
+      <c r="N63" s="1">
+        <v>591.79999999999995</v>
+      </c>
     </row>
     <row r="64" spans="2:38">
       <c r="B64" s="1" t="s">
@@ -6570,8 +7293,11 @@
       <c r="M64" s="1">
         <v>808.6</v>
       </c>
-    </row>
-    <row r="65" spans="2:13">
+      <c r="N64" s="1">
+        <v>847.2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
       <c r="B65" s="1" t="s">
         <v>83</v>
       </c>
@@ -6587,8 +7313,11 @@
       <c r="M65" s="1">
         <v>1372.8</v>
       </c>
-    </row>
-    <row r="66" spans="2:13">
+      <c r="N65" s="1">
+        <v>1370.4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" s="1" t="s">
         <v>84</v>
       </c>
@@ -6604,8 +7333,11 @@
       <c r="M66" s="1">
         <v>240.9</v>
       </c>
-    </row>
-    <row r="67" spans="2:13">
+      <c r="N66" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
       <c r="B67" s="1" t="s">
         <v>71</v>
       </c>
@@ -6621,8 +7353,11 @@
       <c r="M67" s="1">
         <v>3774.4</v>
       </c>
-    </row>
-    <row r="68" spans="2:13">
+      <c r="N67" s="1">
+        <v>3704.7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
       <c r="B68" s="1" t="s">
         <v>85</v>
       </c>
@@ -6638,29 +7373,36 @@
       <c r="M68" s="1">
         <v>1516.8</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" s="7" customFormat="1">
-      <c r="B69" s="7" t="s">
+      <c r="N68" s="1">
+        <v>1580.9</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" s="6" customFormat="1">
+      <c r="B69" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <f>SUM(J58:J68)</f>
         <v>8040</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="6">
         <f>SUM(K58:K68)</f>
         <v>9121.1</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="6">
         <f>SUM(L58:L68)</f>
         <v>9282.4</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="6">
         <f>SUM(M58:M68)</f>
         <v>9177.2999999999993</v>
       </c>
-    </row>
-    <row r="70" spans="2:13">
+      <c r="N69" s="6">
+        <f>SUM(N58:N68)</f>
+        <v>9080.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
       <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
@@ -6676,29 +7418,36 @@
       <c r="M70" s="1">
         <v>2180.9</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" s="7" customFormat="1">
-      <c r="B71" s="7" t="s">
+      <c r="N70" s="1">
+        <v>2242.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" s="6" customFormat="1">
+      <c r="B71" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <f>+SUM(J69:J70)</f>
         <v>10241.5</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="6">
         <f>+SUM(K69:K70)</f>
         <v>11269.1</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="6">
         <f>+SUM(L69:L70)</f>
         <v>11322.1</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="6">
         <f>+SUM(M69:M70)</f>
         <v>11358.199999999999</v>
       </c>
-    </row>
-    <row r="79" spans="2:13">
+      <c r="N71" s="6">
+        <f>+SUM(N69:N70)</f>
+        <v>11323</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" s="1" t="s">
         <v>89</v>
       </c>
@@ -6728,8 +7477,11 @@
         <f>1195.7-SUM(K79:L79)</f>
         <v>585.80000000000007</v>
       </c>
-    </row>
-    <row r="80" spans="2:13">
+      <c r="N79" s="1">
+        <v>1621.7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" s="1" t="s">
         <v>90</v>
       </c>
@@ -6759,156 +7511,248 @@
         <f>+-460.8-SUM(K80:L80)</f>
         <v>-148.40000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" s="7" customFormat="1">
-      <c r="B81" s="7" t="s">
+      <c r="N80" s="1">
+        <v>-601.20000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="6" customFormat="1">
+      <c r="B81" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="6">
         <f>+SUM(G79:G80)</f>
         <v>305</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="6">
         <f>+SUM(H79:H80)</f>
         <v>50.300000000000011</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <f>+SUM(I79:I80)</f>
         <v>374.7</v>
       </c>
-      <c r="J81" s="7">
-        <f t="shared" ref="J81:M81" si="50">+SUM(J79:J80)</f>
+      <c r="J81" s="6">
+        <f t="shared" ref="J81:N81" si="55">+SUM(J79:J80)</f>
         <v>257.89999999999998</v>
       </c>
-      <c r="K81" s="7">
-        <f t="shared" si="50"/>
+      <c r="K81" s="6">
+        <f t="shared" si="55"/>
         <v>118.20000000000002</v>
       </c>
-      <c r="L81" s="7">
-        <f t="shared" si="50"/>
+      <c r="L81" s="6">
+        <f t="shared" si="55"/>
         <v>179.29999999999998</v>
       </c>
-      <c r="M81" s="7">
-        <f t="shared" si="50"/>
+      <c r="M81" s="6">
+        <f t="shared" si="55"/>
         <v>437.40000000000003</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" s="7" customFormat="1">
-      <c r="B82" s="7" t="s">
+      <c r="N81" s="6">
+        <f t="shared" si="55"/>
+        <v>1020.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="6" customFormat="1">
+      <c r="B82" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="7">
-        <f t="shared" ref="C82:M82" si="51">+C37</f>
+      <c r="C82" s="6">
+        <f t="shared" ref="C82:L82" si="56">+C37</f>
         <v>231.69999999999987</v>
       </c>
-      <c r="D82" s="7">
-        <f t="shared" si="51"/>
+      <c r="D82" s="6">
+        <f t="shared" si="56"/>
         <v>193.40000000000015</v>
       </c>
-      <c r="E82" s="7">
-        <f t="shared" si="51"/>
+      <c r="E82" s="6">
+        <f t="shared" si="56"/>
         <v>244.09999999999954</v>
       </c>
-      <c r="F82" s="7">
-        <f t="shared" si="51"/>
+      <c r="F82" s="6">
+        <f t="shared" si="56"/>
         <v>283.50000000000045</v>
       </c>
-      <c r="G82" s="7">
-        <f t="shared" si="51"/>
+      <c r="G82" s="6">
+        <f t="shared" si="56"/>
         <v>188.70000000000061</v>
       </c>
-      <c r="H82" s="7">
-        <f t="shared" si="51"/>
+      <c r="H82" s="6">
+        <f t="shared" si="56"/>
         <v>178.69999999999962</v>
       </c>
-      <c r="I82" s="7">
-        <f t="shared" si="51"/>
+      <c r="I82" s="6">
+        <f t="shared" si="56"/>
         <v>288.10000000000025</v>
       </c>
-      <c r="J82" s="7">
-        <f t="shared" si="51"/>
+      <c r="J82" s="6">
+        <f t="shared" si="56"/>
         <v>317.39999999999969</v>
       </c>
-      <c r="K82" s="7">
-        <f t="shared" si="51"/>
+      <c r="K82" s="6">
+        <f t="shared" si="56"/>
         <v>197.89999999999955</v>
       </c>
-      <c r="L82" s="7">
-        <f t="shared" si="51"/>
+      <c r="L82" s="6">
+        <f t="shared" si="56"/>
         <v>219.8</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="6">
         <f>+M37</f>
         <v>313.80000000000018</v>
       </c>
-    </row>
-    <row r="84" spans="2:13">
+      <c r="N82" s="6">
+        <f>+N37</f>
+        <v>311.39999999999884</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" s="1" t="s">
         <v>93</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84:L84" si="52">+SUM(G81:J81)</f>
+        <f t="shared" ref="J84:L84" si="57">+SUM(G81:J81)</f>
         <v>987.9</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>801.1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>930.09999999999991</v>
       </c>
       <c r="M84" s="1">
         <f>+SUM(J81:M81)</f>
         <v>992.8</v>
       </c>
-    </row>
-    <row r="85" spans="2:13">
+      <c r="N84" s="1">
+        <f>+SUM(K81:N81)</f>
+        <v>1755.4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" ref="J85:L85" si="53">+SUM(G82:J82)</f>
+        <f t="shared" ref="J85:L85" si="58">+SUM(G82:J82)</f>
         <v>972.90000000000009</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>982.09999999999911</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>1023.1999999999996</v>
       </c>
       <c r="M85" s="1">
         <f>+SUM(J82:M82)</f>
         <v>1048.8999999999994</v>
       </c>
-    </row>
-    <row r="87" spans="2:13">
+      <c r="N85" s="1">
+        <f>+SUM(K82:N82)</f>
+        <v>1042.8999999999987</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="J87" s="1">
-        <f t="shared" ref="J87:M87" si="54">+J84-J85</f>
+        <f t="shared" ref="J87:L87" si="59">+J84-J85</f>
         <v>14.999999999999886</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-180.99999999999909</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-93.099999999999682</v>
       </c>
       <c r="M87" s="1">
         <f>+M84-M85</f>
         <v>-56.099999999999454</v>
       </c>
+      <c r="N87" s="1">
+        <f>+N84-N85</f>
+        <v>712.50000000000136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J33:J39 F33:F39 Z33:AI41" formula="1"/>
-    <ignoredError sqref="Y22:Y25" formulaRange="1"/>
+    <ignoredError sqref="J37:J39 F33:F39 AA35:AI35 AA33:AI33 AA34:AI34 Z37:AI37 AA36:AI36 Z40:AI41 AA38:AI38 AA39:AI39" formula="1"/>
+    <ignoredError sqref="Y22:Y25 H22:N32 H33:I36 K33:N36" formulaRange="1"/>
+    <ignoredError sqref="J33:J36" formula="1" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891291DE-60FB-EC41-B212-3253A3E28A15}">
+  <dimension ref="B3:B12"/>
+  <sheetViews>
+    <sheetView zoomScale="291" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>